--- a/models_in_excel/Linear_Regression_2_Variables.xlsx
+++ b/models_in_excel/Linear_Regression_2_Variables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Books\AI\Practice\PDF\Karim\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Books\AI\Practice\PDF\Karim\EXCEL\Git_hub\ML_Models\models_in_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE391E5B-12CA-4F64-B87C-63B2929DE0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA8C8B4-6FBE-4A75-B67E-65BF17453741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,28 @@
     <sheet name="PDF_orginal" sheetId="1" r:id="rId1"/>
     <sheet name="Linear_Regression" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>price</t>
   </si>
@@ -541,6 +552,12 @@
   <si>
     <t>x = A^-1*B</t>
   </si>
+  <si>
+    <t>Predicted(Y)</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
 </sst>
 </file>
 
@@ -625,7 +642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -750,48 +767,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -817,6 +834,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1450,7 +1485,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2938,6 +2973,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2976,17 +3036,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Linear_Regression!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>price</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3011,242 +3060,122 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Linear_Regression!$B$6:$B$42</c:f>
+              <c:f>Linear_Regression!$M$6:$M$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-3.3778451879500329E+25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>-4.0789072005827423E+25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>-4.5341420530766125E+25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>-3.414263993801083E+25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>-3.3778451879500329E+25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>-3.4142637731568293E+25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>-3.9059178727902552E+25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>-3.687405037683957E+25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>-2.6176023951651136E+25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>-2.731411384093898E+25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>-2.9817906743198658E+25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>-3.5508342950982663E+25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>-2.731411384093898E+25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>-3.004552427976772E+25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>-3.8694988462949528E+25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>-2.0940820610562714E+25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>-2.9226098941676558E+25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>-1.9666162405775973E+25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>-3.2572076729241766E+25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>-3.6646430633827971E+25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>-2.0758726581307466E+25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>-4.0060693682363894E+25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>-2.9772383235884844E+25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>-2.7314111634496444E+25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>-4.0402119987217485E+25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>-3.6191199973574919E+25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>-2.5037938475248361E+25</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>-3.402882896328376E+25</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>-3.1866462365877674E+25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>-2.2215481021791997E+25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>-2.7132017605241191E+25</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>-3.113809066174175E+25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>-3.1866462365877674E+25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>-3.406069541840343E+25</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>-4.0971166035082671E+25</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>-2.7314111634496444E+25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Linear_Regression!$C$6:$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>13300000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12250000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12250000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12215000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11410000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10850000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10150000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9870000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9800000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9681000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9310000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9240000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9100000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9100000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8960000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8890000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8855000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8750000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8680000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8645000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8645000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8575000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8540000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8463000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8400000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8400000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8400000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8400000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8400000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8295000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8190000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8120000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8080940</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8043000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7980000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7962500</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7910000</c:v>
+                  <c:v>-2.731411384093898E+25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3254,7 +3183,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F7F7-47BB-B682-AC6987A45150}"/>
+              <c16:uniqueId val="{00000000-19F7-4534-9261-EE07606528F4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3266,11 +3195,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="618628904"/>
-        <c:axId val="618630664"/>
+        <c:axId val="453196248"/>
+        <c:axId val="453198360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="618628904"/>
+        <c:axId val="453196248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3290,7 +3219,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3327,12 +3255,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618630664"/>
+        <c:crossAx val="453198360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="618630664"/>
+        <c:axId val="453198360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3389,7 +3317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618628904"/>
+        <c:crossAx val="453196248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5963,13 +5891,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -6034,16 +5962,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6070,23 +5998,165 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA86CAC5-E6B2-22BC-8926-3B11497B1F82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7033260" y="365760"/>
+          <a:ext cx="1196340" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF8A745-EF00-634B-C53A-FCED9E1D33FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7810500" y="182880"/>
+          <a:ext cx="1417320" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE46EBC2-9ED2-9E25-D4E3-BE5DA590039E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{585E1862-DEFC-F0A7-DD5A-517B5761E490}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6098,7 +6168,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6391,12 +6461,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="N2" s="16"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
@@ -6445,16 +6515,16 @@
       <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6462,28 +6532,28 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>13300000</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>7420</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <f>(D6-D$48)/(D$47-D$46)</f>
         <v>9.5531496062991987E-3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <f>(F6-F$48)/(F$47-F$46)</f>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <f>(E6-E$48)^2</f>
         <v>9.1262667400334699E-5</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f>(G6-G$48)^2</f>
         <v>5.0625000000000003E-2</v>
       </c>
@@ -6491,7 +6561,7 @@
         <f>(E6-E$48)/E$49</f>
         <v>5.3672726447592453E-2</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <f>(G6-G$48)/G$49</f>
         <v>0.70476812726424198</v>
       </c>
@@ -6499,7 +6569,7 @@
         <f>EXP(-0.5*K6^2)/(2*PI()*E$49)</f>
         <v>0.89289760931271478</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <f>EXP(-0.5*L6^2)/(2*PI()*G$49)</f>
         <v>0.38889041910722466</v>
       </c>
@@ -6508,28 +6578,28 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>12250000</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>8960</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <f t="shared" ref="E7:E45" si="0">(D7-D$48)/(D$47-D$46)</f>
         <v>0.13081299212598424</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <f t="shared" ref="G7:G45" si="1">(F7-F$48)/(F$47-F$46)</f>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <f t="shared" ref="H7:H46" si="2">(E7-E$48)^2</f>
         <v>1.7112038908952815E-2</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f t="shared" ref="I7:I46" si="3">(G7-G$48)^2</f>
         <v>5.0625000000000003E-2</v>
       </c>
@@ -6537,7 +6607,7 @@
         <f t="shared" ref="K7:K46" si="4">(E7-E$48)/E$49</f>
         <v>0.73495027624600517</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <f t="shared" ref="L7:L46" si="5">(G7-G$48)/G$49</f>
         <v>0.70476812726424198</v>
       </c>
@@ -6545,7 +6615,7 @@
         <f t="shared" ref="M7:M46" si="6">EXP(-0.5*K7^2)/(2*PI()*E$49)</f>
         <v>0.68255038027224302</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <f t="shared" ref="N7:N46" si="7">EXP(-0.5*L7^2)/(2*PI()*G$49)</f>
         <v>0.38889041910722466</v>
       </c>
@@ -6554,28 +6624,28 @@
       <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>12250000</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>9960</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>0.2095531496062992</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <f t="shared" si="2"/>
         <v>4.3912522509920011E-2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -6583,7 +6653,7 @@
         <f t="shared" si="4"/>
         <v>1.1773382955956238</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -6591,7 +6661,7 @@
         <f t="shared" si="6"/>
         <v>0.4471300825628427</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -6600,28 +6670,28 @@
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>12215000</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>7500</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>1.5852362204724395E-2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <f t="shared" si="2"/>
         <v>2.5129738746977473E-4</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" si="3"/>
         <v>5.0625000000000003E-2</v>
       </c>
@@ -6629,7 +6699,7 @@
         <f t="shared" si="4"/>
         <v>8.906376799556194E-2</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f t="shared" si="5"/>
         <v>0.70476812726424198</v>
       </c>
@@ -6637,7 +6707,7 @@
         <f t="shared" si="6"/>
         <v>0.8906451773545917</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <f t="shared" si="7"/>
         <v>0.38889041910722466</v>
       </c>
@@ -6646,28 +6716,28 @@
       <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>11410000</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>7420</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>9.5531496062991987E-3</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <f t="shared" si="2"/>
         <v>9.1262667400334699E-5</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f t="shared" si="3"/>
         <v>5.0625000000000003E-2</v>
       </c>
@@ -6675,7 +6745,7 @@
         <f t="shared" si="4"/>
         <v>5.3672726447592453E-2</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <f t="shared" si="5"/>
         <v>0.70476812726424198</v>
       </c>
@@ -6683,7 +6753,7 @@
         <f t="shared" si="6"/>
         <v>0.89289760931271478</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <f t="shared" si="7"/>
         <v>0.38889041910722466</v>
       </c>
@@ -6692,28 +6762,28 @@
       <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>10850000</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>7500</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>1.5852362204724395E-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <f t="shared" si="2"/>
         <v>2.5129738746977473E-4</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -6721,7 +6791,7 @@
         <f t="shared" si="4"/>
         <v>8.906376799556194E-2</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -6729,7 +6799,7 @@
         <f t="shared" si="6"/>
         <v>0.8906451773545917</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -6738,28 +6808,28 @@
       <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>10150000</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>8580</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>0.10089173228346456</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12">
         <f t="shared" si="2"/>
         <v>1.0179141643158286E-2</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f t="shared" si="3"/>
         <v>5.0625000000000003E-2</v>
       </c>
@@ -6767,7 +6837,7 @@
         <f t="shared" si="4"/>
         <v>0.56684282889315007</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <f t="shared" si="5"/>
         <v>0.70476812726424198</v>
       </c>
@@ -6775,54 +6845,54 @@
         <f t="shared" si="6"/>
         <v>0.76147466317783719</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <f t="shared" si="7"/>
         <v>0.38889041910722466</v>
       </c>
     </row>
     <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+      <c r="B13" s="13">
         <v>8</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="14">
         <v>10150000</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="14">
         <v>16200</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="14">
         <f t="shared" si="0"/>
         <v>0.70089173228346457</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="14">
         <v>5</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="14">
         <f t="shared" si="1"/>
         <v>0.72500000000000009</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="14">
         <f t="shared" si="2"/>
         <v>0.49124922038331575</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="15">
         <f t="shared" si="3"/>
         <v>0.52562500000000001</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="17">
+      <c r="J13" s="14"/>
+      <c r="K13" s="13">
         <f t="shared" si="4"/>
         <v>3.9378395363372443</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="15">
         <f t="shared" si="5"/>
         <v>2.2709195211847795</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="13">
         <f t="shared" si="6"/>
         <v>3.8389822095989792E-4</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="15">
         <f t="shared" si="7"/>
         <v>3.7830245407428652E-2</v>
       </c>
@@ -6831,28 +6901,28 @@
       <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>9870000</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>8100</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>6.3096456692913375E-2</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14">
         <f t="shared" si="2"/>
         <v>3.9811628472006949E-3</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f t="shared" si="3"/>
         <v>5.0625000000000003E-2</v>
       </c>
@@ -6860,7 +6930,7 @@
         <f t="shared" si="4"/>
         <v>0.35449657960533321</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <f t="shared" si="5"/>
         <v>0.70476812726424198</v>
       </c>
@@ -6868,7 +6938,7 @@
         <f t="shared" si="6"/>
         <v>0.83972829685115336</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <f t="shared" si="7"/>
         <v>0.38889041910722466</v>
       </c>
@@ -6877,28 +6947,28 @@
       <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>9800000</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>5750</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>-0.12194291338582679</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <f t="shared" si="2"/>
         <v>1.4870074125023251E-2</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -6906,7 +6976,7 @@
         <f t="shared" si="4"/>
         <v>-0.6851152658662707</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -6914,54 +6984,54 @@
         <f t="shared" si="6"/>
         <v>0.70713446028961058</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
     </row>
     <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17">
+      <c r="B16" s="13">
         <v>11</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="14">
         <v>9800000</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="14">
         <v>13200</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="14">
         <f t="shared" si="0"/>
         <v>0.46467125984251967</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="14">
         <v>3</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="14">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="14">
         <f t="shared" si="2"/>
         <v>0.21591937972363442</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="15">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="17">
+      <c r="J16" s="14"/>
+      <c r="K16" s="13">
         <f t="shared" si="4"/>
         <v>2.6106754782883881</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="15">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="13">
         <f t="shared" si="6"/>
         <v>2.9609612919256897E-2</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="15">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -6970,28 +7040,28 @@
       <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>9681000</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>6000</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>-0.10225787401574804</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
         <v>4</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <f t="shared" si="2"/>
         <v>1.0456672798220596E-2</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f t="shared" si="3"/>
         <v>5.0625000000000003E-2</v>
       </c>
@@ -6999,7 +7069,7 @@
         <f t="shared" si="4"/>
         <v>-0.57451826102886594</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <f t="shared" si="5"/>
         <v>0.70476812726424198</v>
       </c>
@@ -7007,7 +7077,7 @@
         <f t="shared" si="6"/>
         <v>0.75814653108179897</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <f t="shared" si="7"/>
         <v>0.38889041910722466</v>
       </c>
@@ -7016,28 +7086,28 @@
       <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>9310000</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>6550</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>-5.895078740157482E-2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>4</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <f t="shared" si="1"/>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <f t="shared" si="2"/>
         <v>3.4751953352656715E-3</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <f t="shared" si="3"/>
         <v>5.0625000000000003E-2</v>
       </c>
@@ -7045,7 +7115,7 @@
         <f t="shared" si="4"/>
         <v>-0.33120485038657582</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <f t="shared" si="5"/>
         <v>0.70476812726424198</v>
       </c>
@@ -7053,54 +7123,54 @@
         <f t="shared" si="6"/>
         <v>0.8464608653706388</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <f t="shared" si="7"/>
         <v>0.38889041910722466</v>
       </c>
     </row>
     <row r="19" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="17">
+      <c r="B19" s="13">
         <v>14</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="14">
         <v>9240000</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="14">
         <v>3500</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="14">
         <f t="shared" si="0"/>
         <v>-0.29910826771653543</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="14">
         <v>4</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="14">
         <f t="shared" si="1"/>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="14">
         <f t="shared" si="2"/>
         <v>8.9465755816386633E-2</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="15">
         <f t="shared" si="3"/>
         <v>5.0625000000000003E-2</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="17">
+      <c r="J19" s="14"/>
+      <c r="K19" s="13">
         <f t="shared" si="4"/>
         <v>-1.6804883094029126</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="15">
         <f t="shared" si="5"/>
         <v>0.70476812726424198</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="13">
         <f t="shared" si="6"/>
         <v>0.21786853204096729</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="15">
         <f t="shared" si="7"/>
         <v>0.38889041910722466</v>
       </c>
@@ -7109,28 +7179,28 @@
       <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <v>9240000</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <v>7800</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>3.947440944881888E-2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
         <v>3</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20">
         <f t="shared" si="2"/>
         <v>1.5582290013330018E-3</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -7138,7 +7208,7 @@
         <f t="shared" si="4"/>
         <v>0.22178017380044751</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -7146,7 +7216,7 @@
         <f t="shared" si="6"/>
         <v>0.87246197643959877</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -7155,28 +7225,28 @@
       <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <v>9100000</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21">
         <v>6000</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>-0.10225787401574804</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21">
         <f t="shared" si="2"/>
         <v>1.0456672798220596E-2</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f t="shared" si="3"/>
         <v>5.0625000000000003E-2</v>
       </c>
@@ -7184,7 +7254,7 @@
         <f t="shared" si="4"/>
         <v>-0.57451826102886594</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <f t="shared" si="5"/>
         <v>0.70476812726424198</v>
       </c>
@@ -7192,7 +7262,7 @@
         <f t="shared" si="6"/>
         <v>0.75814653108179897</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="6">
         <f t="shared" si="7"/>
         <v>0.38889041910722466</v>
       </c>
@@ -7201,28 +7271,28 @@
       <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22">
         <v>9100000</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22">
         <v>6600</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>-5.5013779527559072E-2</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22">
         <v>4</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22">
         <f t="shared" si="1"/>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22">
         <f t="shared" si="2"/>
         <v>3.0265159379068768E-3</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <f t="shared" si="3"/>
         <v>5.0625000000000003E-2</v>
       </c>
@@ -7230,7 +7300,7 @@
         <f t="shared" si="4"/>
         <v>-0.30908544941909488</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <f t="shared" si="5"/>
         <v>0.70476812726424198</v>
       </c>
@@ -7238,7 +7308,7 @@
         <f t="shared" si="6"/>
         <v>0.85247628308216727</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <f t="shared" si="7"/>
         <v>0.38889041910722466</v>
       </c>
@@ -7247,28 +7317,28 @@
       <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23">
         <v>8960000</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>8500</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>9.4592519685039358E-2</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23">
         <v>3</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23">
         <f t="shared" si="2"/>
         <v>8.9477447803645617E-3</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -7276,7 +7346,7 @@
         <f t="shared" si="4"/>
         <v>0.53145178734518062</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -7284,7 +7354,7 @@
         <f t="shared" si="6"/>
         <v>0.77641858990118051</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -7293,28 +7363,28 @@
       <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24">
         <v>8890000</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24">
         <v>4600</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>-0.21249409448818898</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24">
         <v>3</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24">
         <f t="shared" si="2"/>
         <v>4.5153740192355386E-2</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -7322,7 +7392,7 @@
         <f t="shared" si="4"/>
         <v>-1.1938614881183323</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -7330,7 +7400,7 @@
         <f t="shared" si="6"/>
         <v>0.43845608977478073</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -7339,28 +7409,28 @@
       <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>8855000</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>6420</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>-6.9187007874015757E-2</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25">
         <v>3</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25">
         <f t="shared" si="2"/>
         <v>4.7868420585591162E-3</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -7368,7 +7438,7 @@
         <f t="shared" si="4"/>
         <v>-0.38871529290202617</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -7376,7 +7446,7 @@
         <f t="shared" si="6"/>
         <v>0.82911801759204073</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -7385,28 +7455,28 @@
       <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26">
         <v>8750000</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26">
         <v>4320</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>-0.23454133858267717</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26">
         <v>3</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26">
         <f t="shared" si="2"/>
         <v>5.5009639504154009E-2</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -7414,7 +7484,7 @@
         <f t="shared" si="4"/>
         <v>-1.3177301335362255</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -7422,7 +7492,7 @@
         <f t="shared" si="6"/>
         <v>0.37529258313379105</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -7431,28 +7501,28 @@
       <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27">
         <v>8680000</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27">
         <v>7155</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>-1.1312992125984266E-2</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27">
         <v>3</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27">
         <f t="shared" si="2"/>
         <v>1.2798379084258179E-4</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -7460,7 +7530,7 @@
         <f t="shared" si="4"/>
         <v>-6.3560098680056493E-2</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -7468,7 +7538,7 @@
         <f t="shared" si="6"/>
         <v>0.89238026945938631</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -7477,28 +7547,28 @@
       <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28">
         <v>8645000</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28">
         <v>8050</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>5.9159448818897627E-2</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28">
         <f t="shared" si="2"/>
         <v>3.4998403845557685E-3</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -7506,7 +7576,7 @@
         <f t="shared" si="4"/>
         <v>0.33237717863785221</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -7514,7 +7584,7 @@
         <f t="shared" si="6"/>
         <v>0.84613168322263632</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -7523,28 +7593,28 @@
       <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29">
         <v>8645000</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29">
         <v>4560</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>-0.21564370078740158</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29">
         <v>3</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29">
         <f t="shared" si="2"/>
         <v>4.6502205689286383E-2</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -7552,7 +7622,7 @@
         <f t="shared" si="4"/>
         <v>-1.2115570088923169</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -7560,7 +7630,7 @@
         <f t="shared" si="6"/>
         <v>0.42922321700270077</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -7569,28 +7639,28 @@
       <c r="B30" s="5">
         <v>25</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30">
         <v>8575000</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30">
         <v>8800</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>0.11821456692913385</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30">
         <f t="shared" si="2"/>
         <v>1.397468383424267E-2</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -7598,7 +7668,7 @@
         <f t="shared" si="4"/>
         <v>0.66416819315006626</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -7606,7 +7676,7 @@
         <f t="shared" si="6"/>
         <v>0.71719846500244677</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -7615,28 +7685,28 @@
       <c r="B31" s="5">
         <v>26</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31">
         <v>8540000</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31">
         <v>6540</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>-5.9738188976377969E-2</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31">
         <v>4</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31">
         <f t="shared" si="1"/>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31">
         <f t="shared" si="2"/>
         <v>3.5686512221774457E-3</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <f t="shared" si="3"/>
         <v>5.0625000000000003E-2</v>
       </c>
@@ -7644,7 +7714,7 @@
         <f t="shared" si="4"/>
         <v>-0.33562873058007198</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <f t="shared" si="5"/>
         <v>0.70476812726424198</v>
       </c>
@@ -7652,7 +7722,7 @@
         <f t="shared" si="6"/>
         <v>0.84521325936765823</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="6">
         <f t="shared" si="7"/>
         <v>0.38889041910722466</v>
       </c>
@@ -7661,28 +7731,28 @@
       <c r="B32" s="5">
         <v>27</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32">
         <v>8463000</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32">
         <v>6000</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>-0.10225787401574804</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32">
         <v>3</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32">
         <f t="shared" si="2"/>
         <v>1.0456672798220596E-2</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -7690,7 +7760,7 @@
         <f t="shared" si="4"/>
         <v>-0.57451826102886594</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -7698,7 +7768,7 @@
         <f>EXP(-0.5*K32^2)/(2*PI()*E$49)</f>
         <v>0.75814653108179897</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -7707,28 +7777,28 @@
       <c r="B33" s="5">
         <v>28</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33">
         <v>8400000</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33">
         <v>8875</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>0.12412007874015747</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33">
         <v>3</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33">
         <f t="shared" si="2"/>
         <v>1.5405793946462893E-2</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -7736,7 +7806,7 @@
         <f t="shared" si="4"/>
         <v>0.69734729460128764</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -7744,7 +7814,7 @@
         <f t="shared" si="6"/>
         <v>0.70118073000528136</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -7753,28 +7823,28 @@
       <c r="B34" s="5">
         <v>29</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34">
         <v>8400000</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34">
         <v>7950</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>5.1285433070866131E-2</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34">
         <v>5</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34">
         <f t="shared" si="1"/>
         <v>0.72500000000000009</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34">
         <f t="shared" si="2"/>
         <v>2.6301956452662902E-3</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <f t="shared" si="3"/>
         <v>0.52562500000000001</v>
       </c>
@@ -7782,7 +7852,7 @@
         <f t="shared" si="4"/>
         <v>0.28813837670289033</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="6">
         <f t="shared" si="5"/>
         <v>2.2709195211847795</v>
       </c>
@@ -7790,7 +7860,7 @@
         <f t="shared" si="6"/>
         <v>0.85782527262989838</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="6">
         <f t="shared" si="7"/>
         <v>3.7830245407428652E-2</v>
       </c>
@@ -7799,28 +7869,28 @@
       <c r="B35" s="5">
         <v>30</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35">
         <v>8400000</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35">
         <v>5500</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>-0.14162795275590553</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35">
         <v>4</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35">
         <f t="shared" si="1"/>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35">
         <f t="shared" si="2"/>
         <v>2.0058477001829011E-2</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <f t="shared" si="3"/>
         <v>5.0625000000000003E-2</v>
       </c>
@@ -7828,7 +7898,7 @@
         <f t="shared" si="4"/>
         <v>-0.79571227070367545</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="6">
         <f t="shared" si="5"/>
         <v>0.70476812726424198</v>
       </c>
@@ -7836,7 +7906,7 @@
         <f t="shared" si="6"/>
         <v>0.65153641362712145</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="6">
         <f t="shared" si="7"/>
         <v>0.38889041910722466</v>
       </c>
@@ -7845,28 +7915,28 @@
       <c r="B36" s="5">
         <v>31</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36">
         <v>8400000</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36">
         <v>7475</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>1.3883858267716521E-2</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36">
         <v>3</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36">
         <f t="shared" si="2"/>
         <v>1.9276152039804064E-4</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -7874,7 +7944,7 @@
         <f t="shared" si="4"/>
         <v>7.8004067511821484E-2</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -7882,7 +7952,7 @@
         <f t="shared" si="6"/>
         <v>0.89146838911433979</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -7891,28 +7961,28 @@
       <c r="B37" s="5">
         <v>32</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37">
         <v>8400000</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37">
         <v>7000</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37">
         <f t="shared" si="0"/>
         <v>-2.3517716535433084E-2</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37">
         <v>3</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37">
         <f t="shared" si="2"/>
         <v>5.5308299104098234E-4</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -7920,7 +7990,7 @@
         <f t="shared" si="4"/>
         <v>-0.13213024167924739</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -7928,7 +7998,7 @@
         <f t="shared" si="6"/>
         <v>0.8864131006317606</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -7937,28 +8007,28 @@
       <c r="B38" s="5">
         <v>33</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38">
         <v>8295000</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38">
         <v>4880</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38">
         <f t="shared" si="0"/>
         <v>-0.1904468503937008</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38">
         <v>4</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38">
         <f t="shared" si="1"/>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38">
         <f t="shared" si="2"/>
         <v>3.6270002824880652E-2</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <f t="shared" si="3"/>
         <v>5.0625000000000003E-2</v>
       </c>
@@ -7966,7 +8036,7 @@
         <f t="shared" si="4"/>
         <v>-1.069992842700439</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="6">
         <f t="shared" si="5"/>
         <v>0.70476812726424198</v>
       </c>
@@ -7974,7 +8044,7 @@
         <f t="shared" si="6"/>
         <v>0.50445061910734079</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="6">
         <f t="shared" si="7"/>
         <v>0.38889041910722466</v>
       </c>
@@ -7983,28 +8053,28 @@
       <c r="B39" s="5">
         <v>34</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39">
         <v>8190000</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39">
         <v>5960</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39">
         <f t="shared" si="0"/>
         <v>-0.10540748031496064</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39">
         <v>3</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39">
         <f t="shared" si="2"/>
         <v>1.1110736906348812E-2</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -8012,7 +8082,7 @@
         <f t="shared" si="4"/>
         <v>-0.59221378180285067</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -8020,7 +8090,7 @@
         <f t="shared" si="6"/>
         <v>0.75036046733536821</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -8029,28 +8099,28 @@
       <c r="B40" s="5">
         <v>35</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40">
         <v>8120000</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40">
         <v>6840</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40">
         <f t="shared" si="0"/>
         <v>-3.6116141732283481E-2</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40">
         <v>5</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40">
         <f t="shared" si="1"/>
         <v>0.72500000000000009</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40">
         <f t="shared" si="2"/>
         <v>1.3043756936263879E-3</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <f t="shared" si="3"/>
         <v>0.52562500000000001</v>
       </c>
@@ -8058,7 +8128,7 @@
         <f t="shared" si="4"/>
         <v>-0.20291232477518639</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="6">
         <f t="shared" si="5"/>
         <v>2.2709195211847795</v>
       </c>
@@ -8066,7 +8136,7 @@
         <f t="shared" si="6"/>
         <v>0.87596452197496799</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="6">
         <f t="shared" si="7"/>
         <v>3.7830245407428652E-2</v>
       </c>
@@ -8075,28 +8145,28 @@
       <c r="B41" s="5">
         <v>36</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41">
         <v>8080940</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41">
         <v>7000</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41">
         <f t="shared" si="0"/>
         <v>-2.3517716535433084E-2</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41">
         <v>3</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41">
         <f t="shared" si="2"/>
         <v>5.5308299104098234E-4</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -8104,7 +8174,7 @@
         <f t="shared" si="4"/>
         <v>-0.13213024167924739</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -8112,7 +8182,7 @@
         <f t="shared" si="6"/>
         <v>0.8864131006317606</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -8121,28 +8191,28 @@
       <c r="B42" s="5">
         <v>37</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42">
         <v>8043000</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42">
         <v>7482</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42">
         <f t="shared" si="0"/>
         <v>1.4435039370078727E-2</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42">
         <v>3</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42">
         <f t="shared" si="1"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42">
         <f t="shared" si="2"/>
         <v>2.0837036161572308E-4</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -8150,7 +8220,7 @@
         <f t="shared" si="4"/>
         <v>8.1100783647268818E-2</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -8158,7 +8228,7 @@
         <f t="shared" si="6"/>
         <v>0.89124880178460608</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -8167,28 +8237,28 @@
       <c r="B43" s="5">
         <v>38</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43">
         <v>7980000</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43">
         <v>9000</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43">
         <f t="shared" si="0"/>
         <v>0.13396259842519684</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43">
         <v>4</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43">
         <f t="shared" si="1"/>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43">
         <f t="shared" si="2"/>
         <v>1.794597777683055E-2</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <f t="shared" si="3"/>
         <v>5.0625000000000003E-2</v>
       </c>
@@ -8196,7 +8266,7 @@
         <f t="shared" si="4"/>
         <v>0.7526457970199899</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="6">
         <f t="shared" si="5"/>
         <v>0.70476812726424198</v>
       </c>
@@ -8204,7 +8274,7 @@
         <f t="shared" si="6"/>
         <v>0.67362558721325694</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N43" s="6">
         <f t="shared" si="7"/>
         <v>0.38889041910722466</v>
       </c>
@@ -8213,28 +8283,28 @@
       <c r="B44" s="5">
         <v>39</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44">
         <v>7962500</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44">
         <v>6000</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44">
         <f t="shared" si="0"/>
         <v>-0.10225787401574804</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44">
         <v>3</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44">
         <f>(F44-F$48)/(F$47-F$46)</f>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44">
         <f t="shared" si="2"/>
         <v>1.0456672798220596E-2</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
@@ -8242,7 +8312,7 @@
         <f t="shared" si="4"/>
         <v>-0.57451826102886594</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="6">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
@@ -8250,7 +8320,7 @@
         <f t="shared" si="6"/>
         <v>0.75814653108179897</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="6">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -8259,28 +8329,28 @@
       <c r="B45" s="5">
         <v>40</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45">
         <v>7910000</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45">
         <v>6000</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45">
         <f t="shared" si="0"/>
         <v>-0.10225787401574804</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45">
         <v>4</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45">
         <f t="shared" si="1"/>
         <v>0.22500000000000009</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45">
         <f t="shared" si="2"/>
         <v>1.0456672798220596E-2</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <f t="shared" si="3"/>
         <v>5.0625000000000003E-2</v>
       </c>
@@ -8288,7 +8358,7 @@
         <f t="shared" si="4"/>
         <v>-0.57451826102886594</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="6">
         <f t="shared" si="5"/>
         <v>0.70476812726424198</v>
       </c>
@@ -8296,56 +8366,56 @@
         <f t="shared" si="6"/>
         <v>0.75814653108179897</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="6">
         <f t="shared" si="7"/>
         <v>0.38889041910722466</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <f>MIN(C6:C45)</f>
         <v>7910000</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <f t="shared" ref="D46:G46" si="8">MIN(D6:D45)</f>
         <v>3500</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <f t="shared" si="8"/>
         <v>-0.29910826771653543</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <f t="shared" si="8"/>
         <v>-0.27499999999999991</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <f t="shared" si="2"/>
         <v>8.9465755816386633E-2</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="10">
         <f t="shared" si="3"/>
         <v>7.5625000000000012E-2</v>
       </c>
-      <c r="K46" s="15">
+      <c r="K46" s="11">
         <f t="shared" si="4"/>
         <v>-1.6804883094029126</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="10">
         <f t="shared" si="5"/>
         <v>-0.86138326665629583</v>
       </c>
-      <c r="M46" s="15">
+      <c r="M46" s="11">
         <f t="shared" si="6"/>
         <v>0.21786853204096729</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="10">
         <f t="shared" si="7"/>
         <v>0.34400496676748193</v>
       </c>
@@ -8443,10 +8513,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D786FF76-C008-4DA2-A666-A43F81F7EDEA}">
-  <dimension ref="B2:S46"/>
+  <dimension ref="B2:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C42"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8457,1609 +8527,1916 @@
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="35"/>
     </row>
-    <row r="4" spans="2:19" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="2:20" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="43" t="s">
         <v>32</v>
       </c>
+      <c r="L4" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>13300000</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>7420</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>4</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>13300000</v>
       </c>
       <c r="G6" s="5">
         <f>D6*D6</f>
         <v>55056400</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <f>E6*E6</f>
         <v>16</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <f>D6*E6</f>
         <v>29680</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6">
         <f>C6*D6</f>
         <v>98686000000</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <f>C6*E6</f>
         <v>53200000</v>
       </c>
+      <c r="L6" s="5">
+        <f>P$23+P$24*D6+P$25*E6</f>
+        <v>3.3778451879500329E+25</v>
+      </c>
+      <c r="M6" s="6">
+        <f>C6-P$23-P$24*D6-P$25*E6</f>
+        <v>-3.3778451879500329E+25</v>
+      </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>12250000</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>8960</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>12250000</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" ref="G7:G42" si="0">D7*D7</f>
         <v>80281600</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <f t="shared" ref="H7:H42" si="1">E7*E7</f>
         <v>16</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7">
         <f t="shared" ref="I7:I42" si="2">D7*E7</f>
         <v>35840</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7">
         <f t="shared" ref="J7:J42" si="3">C7*D7</f>
         <v>109760000000</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <f t="shared" ref="K7:K42" si="4">C7*E7</f>
         <v>49000000</v>
       </c>
+      <c r="L7" s="5">
+        <f t="shared" ref="L7:L42" si="5">P$23+P$24*D7+P$25*E7</f>
+        <v>4.0789072005827423E+25</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" ref="M7:M42" si="6">C7-P$23-P$24*D7-P$25*E7</f>
+        <v>-4.0789072005827423E+25</v>
+      </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>12250000</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>9960</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>3</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>12250000</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>99201600</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8">
         <f t="shared" si="2"/>
         <v>29880</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8">
         <f t="shared" si="3"/>
         <v>122010000000</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <f t="shared" si="4"/>
         <v>36750000</v>
       </c>
+      <c r="L8" s="5">
+        <f t="shared" si="5"/>
+        <v>4.5341420530766125E+25</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="6"/>
+        <v>-4.5341420530766125E+25</v>
+      </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>12215000</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>7500</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>12215000</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>56250000</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9">
         <f t="shared" si="3"/>
         <v>91612500000</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <f t="shared" si="4"/>
         <v>48860000</v>
       </c>
+      <c r="L9" s="5">
+        <f t="shared" si="5"/>
+        <v>3.414263993801083E+25</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.414263993801083E+25</v>
+      </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>11410000</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>7420</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>4</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>11410000</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>55056400</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <f t="shared" si="2"/>
         <v>29680</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10">
         <f t="shared" si="3"/>
         <v>84662200000</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <f t="shared" si="4"/>
         <v>45640000</v>
       </c>
+      <c r="L10" s="5">
+        <f t="shared" si="5"/>
+        <v>3.3778451879500329E+25</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.3778451879500329E+25</v>
+      </c>
     </row>
-    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>10850000</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>7500</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>3</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>10850000</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>56250000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <f t="shared" si="2"/>
         <v>22500</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11">
         <f t="shared" si="3"/>
         <v>81375000000</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <f t="shared" si="4"/>
         <v>32550000</v>
       </c>
-      <c r="N11" s="28" t="s">
+      <c r="L11" s="5">
+        <f t="shared" si="5"/>
+        <v>3.4142637731568293E+25</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.4142637731568293E+25</v>
+      </c>
+      <c r="O11" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="23" t="s">
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="S11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="T11" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:20" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>10150000</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>8580</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>4</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12">
         <v>10150000</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>73616400</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12">
         <f t="shared" si="2"/>
         <v>34320</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12">
         <f t="shared" si="3"/>
         <v>87087000000</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <f t="shared" si="4"/>
         <v>40600000</v>
       </c>
-      <c r="N12" s="29">
+      <c r="L12" s="5">
+        <f t="shared" si="5"/>
+        <v>3.9059178727902552E+25</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.9059178727902552E+25</v>
+      </c>
+      <c r="O12" s="20">
         <f>B42</f>
         <v>37</v>
       </c>
-      <c r="O12" s="30">
+      <c r="P12" s="21">
         <f>D43</f>
         <v>259047</v>
       </c>
-      <c r="P12" s="31">
+      <c r="Q12" s="22">
         <f>E43</f>
         <v>130</v>
       </c>
-      <c r="Q12" s="35" t="s">
+      <c r="R12" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="27" t="s">
+      <c r="S12" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="38">
+      <c r="T12" s="29">
         <f>C43</f>
         <v>342110440</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:20" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>9870000</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>8100</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>4</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>9870000</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>65610000</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13">
         <f t="shared" si="2"/>
         <v>32400</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13">
         <f t="shared" si="3"/>
         <v>79947000000</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <f t="shared" si="4"/>
         <v>39480000</v>
       </c>
-      <c r="N13" s="17">
+      <c r="L13" s="5">
+        <f t="shared" si="5"/>
+        <v>3.687405037683957E+25</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.687405037683957E+25</v>
+      </c>
+      <c r="O13" s="13">
         <f>D43</f>
         <v>259047</v>
       </c>
-      <c r="O13" s="18">
+      <c r="P13" s="14">
         <f>G43</f>
         <v>1881173599</v>
       </c>
-      <c r="P13" s="19">
+      <c r="Q13" s="15">
         <f>I43</f>
         <v>911771</v>
       </c>
-      <c r="Q13" s="36" t="s">
+      <c r="R13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="39">
+      <c r="S13" s="37"/>
+      <c r="T13" s="30">
         <f>J43</f>
         <v>2419951856000</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>9800000</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>5750</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>9800000</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>33062500</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14">
         <f t="shared" si="2"/>
         <v>17250</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14">
         <f t="shared" si="3"/>
         <v>56350000000</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <f t="shared" si="4"/>
         <v>29400000</v>
       </c>
-      <c r="N14" s="32">
+      <c r="L14" s="5">
+        <f t="shared" si="5"/>
+        <v>2.6176023951651136E+25</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="6"/>
+        <v>-2.6176023951651136E+25</v>
+      </c>
+      <c r="O14" s="23">
         <f>E43</f>
         <v>130</v>
       </c>
-      <c r="O14" s="33">
+      <c r="P14" s="24">
         <f>I43</f>
         <v>911771</v>
       </c>
-      <c r="P14" s="34">
+      <c r="Q14" s="25">
         <f>H43</f>
         <v>470</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="R14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="R14" s="27"/>
-      <c r="S14" s="40">
+      <c r="S14" s="37"/>
+      <c r="T14" s="31">
         <f>K43</f>
         <v>1206882320</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>9681000</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>6000</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>4</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>9681000</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>36000000</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15">
         <f t="shared" si="2"/>
         <v>24000</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15">
         <f t="shared" si="3"/>
         <v>58086000000</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <f t="shared" si="4"/>
         <v>38724000</v>
       </c>
+      <c r="L15" s="5">
+        <f t="shared" si="5"/>
+        <v>2.731411384093898E+25</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="6"/>
+        <v>-2.731411384093898E+25</v>
+      </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>9310000</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>6550</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>4</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>9310000</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>42902500</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16">
         <f t="shared" si="2"/>
         <v>26200</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16">
         <f t="shared" si="3"/>
         <v>60980500000</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <f t="shared" si="4"/>
         <v>37240000</v>
       </c>
+      <c r="L16" s="5">
+        <f t="shared" si="5"/>
+        <v>2.9817906743198658E+25</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="6"/>
+        <v>-2.9817906743198658E+25</v>
+      </c>
     </row>
-    <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>9240000</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>7800</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>3</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
         <v>9240000</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>60840000</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17">
         <f t="shared" si="2"/>
         <v>23400</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17">
         <f t="shared" si="3"/>
         <v>72072000000</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <f t="shared" si="4"/>
         <v>27720000</v>
       </c>
-      <c r="N17" s="28" t="s">
+      <c r="L17" s="5">
+        <f t="shared" si="5"/>
+        <v>3.5508342950982663E+25</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.5508342950982663E+25</v>
+      </c>
+      <c r="O17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>9100000</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>6000</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>4</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>9100000</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>36000000</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18">
         <f t="shared" si="2"/>
         <v>24000</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18">
         <f t="shared" si="3"/>
         <v>54600000000</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <f t="shared" si="4"/>
         <v>36400000</v>
       </c>
-      <c r="N18" s="24">
-        <f t="array" ref="N18:P20">MINVERSE(N12:P14)</f>
+      <c r="L18" s="5">
+        <f t="shared" si="5"/>
+        <v>2.731411384093898E+25</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="6"/>
+        <v>-2.731411384093898E+25</v>
+      </c>
+      <c r="O18" s="17">
+        <f t="array" ref="O18:Q20">MINVERSE(O12:Q14)</f>
         <v>1.6013859120556957</v>
       </c>
-      <c r="O18" s="25">
+      <c r="P18" s="18">
         <v>-9.7670009530921088E-5</v>
       </c>
-      <c r="P18" s="26">
+      <c r="Q18" s="19">
         <v>-0.25346273682387876</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>9100000</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>6600</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>4</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>9100000</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>43560000</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19">
         <f t="shared" si="2"/>
         <v>26400</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19">
         <f t="shared" si="3"/>
         <v>60060000000</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <f t="shared" si="4"/>
         <v>36400000</v>
       </c>
-      <c r="N19" s="5">
+      <c r="L19" s="5">
+        <f t="shared" si="5"/>
+        <v>3.004552427976772E+25</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.004552427976772E+25</v>
+      </c>
+      <c r="O19" s="5">
         <v>-9.7670009530920925E-5</v>
       </c>
-      <c r="O19" s="6">
+      <c r="P19">
         <v>1.4854247133690282E-8</v>
       </c>
-      <c r="P19" s="7">
+      <c r="Q19" s="6">
         <v>-1.8012138815153209E-6</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <v>8960000</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <v>8500</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>3</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
         <v>8960000</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>72250000</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20">
         <f t="shared" si="2"/>
         <v>25500</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20">
         <f t="shared" si="3"/>
         <v>76160000000</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <f t="shared" si="4"/>
         <v>26880000</v>
       </c>
-      <c r="N20" s="15">
+      <c r="L20" s="5">
+        <f t="shared" si="5"/>
+        <v>3.8694988462949528E+25</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.8694988462949528E+25</v>
+      </c>
+      <c r="O20" s="11">
         <v>-0.25346273682387899</v>
       </c>
-      <c r="O20" s="10">
+      <c r="P20" s="9">
         <v>-1.8012138815152805E-6</v>
       </c>
-      <c r="P20" s="11">
+      <c r="Q20" s="10">
         <v>7.5728617806526247E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <v>8890000</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21">
         <v>4600</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>3</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21">
         <v>8890000</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
         <v>21160000</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21">
         <f t="shared" si="2"/>
         <v>13800</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21">
         <f t="shared" si="3"/>
         <v>40894000000</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <f t="shared" si="4"/>
         <v>26670000</v>
       </c>
+      <c r="L21" s="5">
+        <f t="shared" si="5"/>
+        <v>2.0940820610562714E+25</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="6"/>
+        <v>-2.0940820610562714E+25</v>
+      </c>
     </row>
-    <row r="22" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22">
         <v>8855000</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22">
         <v>6420</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>3</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22">
         <v>8855000</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
         <v>41216400</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22">
         <f t="shared" si="2"/>
         <v>19260</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22">
         <f t="shared" si="3"/>
         <v>56849100000</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <f t="shared" si="4"/>
         <v>26565000</v>
       </c>
-      <c r="N22" s="23" t="s">
+      <c r="L22" s="5">
+        <f t="shared" si="5"/>
+        <v>2.9226098941676558E+25</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="6"/>
+        <v>-2.9226098941676558E+25</v>
+      </c>
+      <c r="O22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23">
         <v>8750000</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>4320</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>3</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23">
         <v>8750000</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
         <v>18662400</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23">
         <f t="shared" si="2"/>
         <v>12960</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23">
         <f t="shared" si="3"/>
         <v>37800000000</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <f t="shared" si="4"/>
         <v>26250000</v>
       </c>
-      <c r="N23" s="41" t="s">
+      <c r="L23" s="5">
+        <f t="shared" si="5"/>
+        <v>1.9666162405775973E+25</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="6"/>
+        <v>-1.9666162405775973E+25</v>
+      </c>
+      <c r="O23" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="O23" s="26">
-        <f t="array" ref="O23:O25">MMULT(N12:P14,S12:S14)</f>
+      <c r="P23" s="19">
+        <f t="array" ref="P23:P25">MMULT(O12:Q14,T12:T14)</f>
         <v>6.2688143799401984E+17</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24">
         <v>8680000</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24">
         <v>7155</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>3</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24">
         <v>8680000</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
         <v>51194025</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24">
         <f t="shared" si="2"/>
         <v>21465</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24">
         <f t="shared" si="3"/>
         <v>62105400000</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <f t="shared" si="4"/>
         <v>26040000</v>
       </c>
-      <c r="N24" s="42" t="s">
+      <c r="L24" s="5">
+        <f t="shared" si="5"/>
+        <v>3.2572076729241766E+25</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.2572076729241766E+25</v>
+      </c>
+      <c r="O24" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="O24" s="7">
+      <c r="P24" s="6">
         <v>4.5523507313812329E+21</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>8645000</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>8050</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>3</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25">
         <v>8645000</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
         <v>64802500</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25">
         <f t="shared" si="2"/>
         <v>24150</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25">
         <f t="shared" si="3"/>
         <v>69592250000</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <f t="shared" si="4"/>
         <v>25935000</v>
       </c>
-      <c r="N25" s="43" t="s">
+      <c r="L25" s="5">
+        <f t="shared" si="5"/>
+        <v>3.6646430633827971E+25</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.6646430633827971E+25</v>
+      </c>
+      <c r="O25" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="O25" s="11">
+      <c r="P25" s="10">
         <v>2.2064425354060234E+18</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26">
         <v>8645000</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26">
         <v>4560</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>3</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26">
         <v>8645000</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
         <v>20793600</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26">
         <f t="shared" si="2"/>
         <v>13680</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26">
         <f t="shared" si="3"/>
         <v>39421200000</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <f t="shared" si="4"/>
         <v>25935000</v>
       </c>
+      <c r="L26" s="5">
+        <f t="shared" si="5"/>
+        <v>2.0758726581307466E+25</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="6"/>
+        <v>-2.0758726581307466E+25</v>
+      </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27">
         <v>8575000</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27">
         <v>8800</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>3</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27">
         <v>8575000</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
         <v>77440000</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27">
         <f t="shared" si="2"/>
         <v>26400</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27">
         <f t="shared" si="3"/>
         <v>75460000000</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <f t="shared" si="4"/>
         <v>25725000</v>
       </c>
+      <c r="L27" s="5">
+        <f t="shared" si="5"/>
+        <v>4.0060693682363894E+25</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="6"/>
+        <v>-4.0060693682363894E+25</v>
+      </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28">
         <v>8540000</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28">
         <v>6540</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>4</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28">
         <v>8540000</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
         <v>42771600</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28">
         <f t="shared" si="2"/>
         <v>26160</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28">
         <f t="shared" si="3"/>
         <v>55851600000</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <f t="shared" si="4"/>
         <v>34160000</v>
       </c>
+      <c r="L28" s="5">
+        <f t="shared" si="5"/>
+        <v>2.9772383235884844E+25</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="6"/>
+        <v>-2.9772383235884844E+25</v>
+      </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29">
         <v>8463000</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29">
         <v>6000</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>3</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29">
         <v>8463000</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
         <v>36000000</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29">
         <f t="shared" si="2"/>
         <v>18000</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29">
         <f t="shared" si="3"/>
         <v>50778000000</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <f t="shared" si="4"/>
         <v>25389000</v>
       </c>
+      <c r="L29" s="5">
+        <f t="shared" si="5"/>
+        <v>2.7314111634496444E+25</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="6"/>
+        <v>-2.7314111634496444E+25</v>
+      </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>25</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30">
         <v>8400000</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30">
         <v>8875</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>3</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30">
         <v>8400000</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
         <v>78765625</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30">
         <f t="shared" si="2"/>
         <v>26625</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30">
         <f t="shared" si="3"/>
         <v>74550000000</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="6">
         <f t="shared" si="4"/>
         <v>25200000</v>
       </c>
+      <c r="L30" s="5">
+        <f t="shared" si="5"/>
+        <v>4.0402119987217485E+25</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="6"/>
+        <v>-4.0402119987217485E+25</v>
+      </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>26</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31">
         <v>8400000</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31">
         <v>7950</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>5</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31">
         <v>8400000</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
         <v>63202500</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31">
         <f t="shared" si="2"/>
         <v>39750</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31">
         <f t="shared" si="3"/>
         <v>66780000000</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
         <f t="shared" si="4"/>
         <v>42000000</v>
       </c>
+      <c r="L31" s="5">
+        <f t="shared" si="5"/>
+        <v>3.6191199973574919E+25</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.6191199973574919E+25</v>
+      </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>27</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32">
         <v>8400000</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32">
         <v>5500</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>4</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32">
         <v>8400000</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
         <v>30250000</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32">
         <f t="shared" si="2"/>
         <v>22000</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32">
         <f t="shared" si="3"/>
         <v>46200000000</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="6">
         <f t="shared" si="4"/>
         <v>33600000</v>
       </c>
+      <c r="L32" s="5">
+        <f t="shared" si="5"/>
+        <v>2.5037938475248361E+25</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="6"/>
+        <v>-2.5037938475248361E+25</v>
+      </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>28</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33">
         <v>8400000</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33">
         <v>7475</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>3</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33">
         <v>8400000</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="0"/>
         <v>55875625</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33">
         <f t="shared" si="2"/>
         <v>22425</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33">
         <f t="shared" si="3"/>
         <v>62790000000</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="6">
         <f t="shared" si="4"/>
         <v>25200000</v>
       </c>
+      <c r="L33" s="5">
+        <f t="shared" si="5"/>
+        <v>3.402882896328376E+25</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.402882896328376E+25</v>
+      </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>29</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34">
         <v>8400000</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34">
         <v>7000</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>3</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34">
         <v>8400000</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="0"/>
         <v>49000000</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34">
         <f t="shared" si="2"/>
         <v>21000</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34">
         <f t="shared" si="3"/>
         <v>58800000000</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="6">
         <f t="shared" si="4"/>
         <v>25200000</v>
       </c>
+      <c r="L34" s="5">
+        <f t="shared" si="5"/>
+        <v>3.1866462365877674E+25</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.1866462365877674E+25</v>
+      </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>30</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35">
         <v>8295000</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35">
         <v>4880</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>4</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35">
         <v>8295000</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="0"/>
         <v>23814400</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35">
         <f t="shared" si="2"/>
         <v>19520</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35">
         <f t="shared" si="3"/>
         <v>40479600000</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
         <f t="shared" si="4"/>
         <v>33180000</v>
       </c>
+      <c r="L35" s="5">
+        <f t="shared" si="5"/>
+        <v>2.2215481021791997E+25</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="6"/>
+        <v>-2.2215481021791997E+25</v>
+      </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>31</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36">
         <v>8190000</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36">
         <v>5960</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>3</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36">
         <v>8190000</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" si="0"/>
         <v>35521600</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36">
         <f t="shared" si="2"/>
         <v>17880</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36">
         <f t="shared" si="3"/>
         <v>48812400000</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="6">
         <f t="shared" si="4"/>
         <v>24570000</v>
       </c>
+      <c r="L36" s="5">
+        <f t="shared" si="5"/>
+        <v>2.7132017605241191E+25</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="6"/>
+        <v>-2.7132017605241191E+25</v>
+      </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>32</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37">
         <v>8120000</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37">
         <v>6840</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>5</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37">
         <v>8120000</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="0"/>
         <v>46785600</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37">
         <f t="shared" si="3"/>
         <v>55540800000</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="6">
         <f t="shared" si="4"/>
         <v>40600000</v>
       </c>
+      <c r="L37" s="5">
+        <f t="shared" si="5"/>
+        <v>3.113809066174175E+25</v>
+      </c>
+      <c r="M37" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.113809066174175E+25</v>
+      </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>33</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38">
         <v>8080940</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38">
         <v>7000</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>3</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38">
         <v>8080940</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="0"/>
         <v>49000000</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38">
         <f t="shared" si="2"/>
         <v>21000</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38">
         <f t="shared" si="3"/>
         <v>56566580000</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="6">
         <f t="shared" si="4"/>
         <v>24242820</v>
       </c>
+      <c r="L38" s="5">
+        <f t="shared" si="5"/>
+        <v>3.1866462365877674E+25</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.1866462365877674E+25</v>
+      </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>34</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39">
         <v>8043000</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39">
         <v>7482</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>3</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39">
         <v>8043000</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" si="0"/>
         <v>55980324</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39">
         <f t="shared" si="2"/>
         <v>22446</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39">
         <f t="shared" si="3"/>
         <v>60177726000</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="6">
         <f t="shared" si="4"/>
         <v>24129000</v>
       </c>
+      <c r="L39" s="5">
+        <f t="shared" si="5"/>
+        <v>3.406069541840343E+25</v>
+      </c>
+      <c r="M39" s="6">
+        <f t="shared" si="6"/>
+        <v>-3.406069541840343E+25</v>
+      </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>35</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40">
         <v>7980000</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40">
         <v>9000</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>4</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40">
         <v>7980000</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" si="0"/>
         <v>81000000</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40">
         <f t="shared" si="2"/>
         <v>36000</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40">
         <f t="shared" si="3"/>
         <v>71820000000</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="6">
         <f t="shared" si="4"/>
         <v>31920000</v>
       </c>
+      <c r="L40" s="5">
+        <f t="shared" si="5"/>
+        <v>4.0971166035082671E+25</v>
+      </c>
+      <c r="M40" s="6">
+        <f t="shared" si="6"/>
+        <v>-4.0971166035082671E+25</v>
+      </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>36</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41">
         <v>7962500</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41">
         <v>6000</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>3</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41">
         <v>7962500</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="0"/>
         <v>36000000</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41">
         <f t="shared" si="2"/>
         <v>18000</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41">
         <f t="shared" si="3"/>
         <v>47775000000</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="6">
         <f t="shared" si="4"/>
         <v>23887500</v>
       </c>
+      <c r="L41" s="5">
+        <f t="shared" si="5"/>
+        <v>2.7314111634496444E+25</v>
+      </c>
+      <c r="M41" s="6">
+        <f t="shared" si="6"/>
+        <v>-2.7314111634496444E+25</v>
+      </c>
     </row>
-    <row r="42" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="15">
+    <row r="42" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="11">
         <v>37</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>7910000</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>6000</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <v>4</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <v>7910000</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="11">
         <f t="shared" si="0"/>
         <v>36000000</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <f t="shared" si="2"/>
         <v>24000</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="9">
         <f t="shared" si="3"/>
         <v>47460000000</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="10">
         <f t="shared" si="4"/>
         <v>31640000</v>
       </c>
+      <c r="L42" s="11">
+        <f t="shared" si="5"/>
+        <v>2.731411384093898E+25</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="6"/>
+        <v>-2.731411384093898E+25</v>
+      </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="21" t="s">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="1">
         <f>SUM(C6:C42)</f>
         <v>342110440</v>
       </c>
-      <c r="D43" s="21">
-        <f t="shared" ref="D43:K43" si="5">SUM(D6:D42)</f>
+      <c r="D43" s="1">
+        <f t="shared" ref="D43:K43" si="7">SUM(D6:D42)</f>
         <v>259047</v>
       </c>
-      <c r="E43" s="21">
-        <f t="shared" si="5"/>
+      <c r="E43" s="1">
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21">
-        <f t="shared" si="5"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1">
+        <f t="shared" si="7"/>
         <v>1881173599</v>
       </c>
-      <c r="H43" s="21">
-        <f t="shared" si="5"/>
+      <c r="H43" s="1">
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
-      <c r="I43" s="21">
-        <f t="shared" si="5"/>
+      <c r="I43" s="1">
+        <f t="shared" si="7"/>
         <v>911771</v>
       </c>
-      <c r="J43" s="21">
-        <f t="shared" si="5"/>
+      <c r="J43" s="1">
+        <f t="shared" si="7"/>
         <v>2419951856000</v>
       </c>
-      <c r="K43" s="21">
-        <f t="shared" si="5"/>
+      <c r="K43" s="1">
+        <f t="shared" si="7"/>
         <v>1206882320</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
@@ -10072,12 +10449,12 @@
         <v>4320</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" ref="E44" si="6">MIN(E6:E42)</f>
+        <f t="shared" ref="E44" si="8">MIN(E6:E42)</f>
         <v>3</v>
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>25</v>
       </c>
@@ -10090,13 +10467,13 @@
         <v>9960</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" ref="E45" si="7">MAX(E6:E42)</f>
+        <f t="shared" ref="E45" si="9">MAX(E6:E42)</f>
         <v>5</v>
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="12" t="s">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="1">
@@ -10108,7 +10485,7 @@
         <v>7001.27027027027</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" ref="E46" si="8">AVERAGE(E6:E42)</f>
+        <f t="shared" ref="E46" si="10">AVERAGE(E6:E42)</f>
         <v>3.5135135135135136</v>
       </c>
       <c r="F46" s="1"/>
@@ -10116,9 +10493,9 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="O17:Q17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/models_in_excel/Linear_Regression_2_Variables.xlsx
+++ b/models_in_excel/Linear_Regression_2_Variables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Books\AI\Practice\PDF\Karim\EXCEL\Git_hub\ML_Models\models_in_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Books\AI\Practice\PDF\Karim\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA8C8B4-6FBE-4A75-B67E-65BF17453741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4098379F-A7DD-46C6-B72E-D315946212F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,28 +16,17 @@
     <sheet name="PDF_orginal" sheetId="1" r:id="rId1"/>
     <sheet name="Linear_Regression" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>price</t>
   </si>
@@ -55,9 +44,6 @@
   </si>
   <si>
     <t>MAX</t>
-  </si>
-  <si>
-    <t>Average</t>
   </si>
   <si>
     <r>
@@ -212,9 +198,6 @@
     </r>
   </si>
   <si>
-    <t>Y= a0+a1X1+a2X2</t>
-  </si>
-  <si>
     <r>
       <t>Y= a</t>
     </r>
@@ -315,12 +298,6 @@
     </r>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
     <r>
       <t>X</t>
     </r>
@@ -355,20 +332,14 @@
     </r>
   </si>
   <si>
+    <t>Predicted(Y)</t>
+  </si>
+  <si>
+    <t>Error(e )</t>
+  </si>
+  <si>
     <r>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
+      <t>Error</t>
     </r>
     <r>
       <rPr>
@@ -382,181 +353,6 @@
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>YX</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>YX</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A^-1</t>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>x = A^-1*B</t>
-  </si>
-  <si>
-    <t>Predicted(Y)</t>
-  </si>
-  <si>
-    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -642,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -730,63 +526,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -803,55 +547,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1975,6 +1680,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Area Vs Price</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2008,27 +1738,25 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Linear_Regression!$E$5</c:f>
+              <c:f>Linear_Regression!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bedrooms</c:v>
+                  <c:v>price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2064,8 +1792,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.34178602067208186"/>
-                  <c:y val="-0.69134599882631376"/>
+                  <c:x val="0.28814741907261593"/>
+                  <c:y val="-0.24471894138232722"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2100,7 +1828,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Linear_Regression!$D$6:$D$42</c:f>
+              <c:f>Linear_Regression!$B$6:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -2219,347 +1947,12 @@
             </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>Linear_Regression!$E$6:$E$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D55B-4C0F-9BDC-9CAD13398B8D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Linear_Regression!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>price</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.13061745167637756"/>
-                  <c:y val="-0.25901126609788028"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
             <c:numRef>
               <c:f>Linear_Regression!$D$6:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>7420</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8960</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9960</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7420</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8580</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5750</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6550</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6420</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4320</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7155</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8050</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4560</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6540</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8875</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7950</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7475</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4880</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5960</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6840</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7482</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Linear_Regression!$F$6:$F$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
                   <c:v>13300000</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2673,10 +2066,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D55B-4C0F-9BDC-9CAD13398B8D}"/>
+              <c16:uniqueId val="{00000000-0498-45E1-B079-163685E1DF86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2688,17 +2081,42 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="519807640"/>
-        <c:axId val="519804472"/>
+        <c:axId val="559776856"/>
+        <c:axId val="559780024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="519807640"/>
+        <c:axId val="559776856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Area</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2765,12 +2183,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519804472"/>
+        <c:crossAx val="559780024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519804472"/>
+        <c:axId val="559780024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2805,6 +2223,31 @@
           </c:spPr>
         </c:minorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Price</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2871,7 +2314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519807640"/>
+        <c:crossAx val="559776856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2992,12 +2435,731 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Error</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>bedrooms vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>price</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Linear_Regression!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.35945909886264216"/>
+                  <c:y val="-0.27325349956255468"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Linear_Regression!$C$6:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Linear_Regression!$D$6:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>13300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12250000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12250000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12215000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11410000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10850000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10150000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9870000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9681000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9310000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9240000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9100000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8960000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8890000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8855000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8750000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8680000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8645000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8645000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8575000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8540000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8463000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8400000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8400000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8400000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8400000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8400000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8295000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8190000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8120000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8080940</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8043000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7980000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7962500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7910000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B19D-42BA-8A2D-ADE41E98BA1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="559786360"/>
+        <c:axId val="559784248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="559786360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>bedrooms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559784248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="559784248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Price</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559786360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3036,6 +3198,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Linear_Regression!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error(e )</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3062,7 +3235,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Linear_Regression!$M$6:$M$42</c:f>
+              <c:f>Linear_Regression!$F$6:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -3183,7 +3356,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-19F7-4534-9261-EE07606528F4}"/>
+              <c16:uniqueId val="{00000000-B4F8-4B11-A8CD-76169995840A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3195,11 +3368,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453196248"/>
-        <c:axId val="453198360"/>
+        <c:axId val="560346552"/>
+        <c:axId val="560346904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453196248"/>
+        <c:axId val="560346552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3255,12 +3428,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453198360"/>
+        <c:crossAx val="560346904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453198360"/>
+        <c:axId val="560346904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3317,7 +3490,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453196248"/>
+        <c:crossAx val="560346552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3329,6 +3502,593 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Price</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Predicted(Price)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Linear_Regression!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Linear_Regression!$D$6:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>13300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12250000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12250000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12215000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11410000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10850000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10150000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9870000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9681000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9310000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9240000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9100000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8960000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8890000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8855000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8750000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8680000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8645000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8645000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8575000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8540000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8463000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8400000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8400000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8400000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8400000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8400000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8295000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8190000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8120000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8080940</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8043000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7980000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7962500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7910000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75BE-4E54-B11F-FA3420D7E651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Linear_Regression!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted(Y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Linear_Regression!$E$6:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>3.3778451879500329E+25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0789072005827423E+25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5341420530766125E+25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.414263993801083E+25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3778451879500329E+25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4142637731568293E+25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9059178727902552E+25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.687405037683957E+25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6176023951651136E+25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.731411384093898E+25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9817906743198658E+25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5508342950982663E+25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.731411384093898E+25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.004552427976772E+25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8694988462949528E+25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0940820610562714E+25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9226098941676558E+25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9666162405775973E+25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2572076729241766E+25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6646430633827971E+25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0758726581307466E+25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0060693682363894E+25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9772383235884844E+25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7314111634496444E+25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0402119987217485E+25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6191199973574919E+25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5037938475248361E+25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.402882896328376E+25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1866462365877674E+25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2215481021791997E+25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.7132017605241191E+25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.113809066174175E+25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1866462365877674E+25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.406069541840343E+25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.0971166035082671E+25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7314111634496444E+25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.731411384093898E+25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75BE-4E54-B11F-FA3420D7E651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="559787064"/>
+        <c:axId val="559787768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="559787064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559787768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="559787768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559787064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3533,6 +4293,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5578,6 +6418,1038 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5891,23 +7763,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>395579</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D230070-D68A-BD1B-38A6-664944E7B2E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE901CA-EA3F-4567-AC99-26E3C8C30E6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5940,8 +7812,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7787640" y="769620"/>
-          <a:ext cx="3070860" cy="937260"/>
+          <a:off x="2316481" y="373380"/>
+          <a:ext cx="2087218" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5962,59 +7834,94 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD452F3-CF7F-A649-7DAE-44A9940CB36C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85CB9F0-8FF5-4F2D-8C51-8B2F70D055C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3139440" y="182880"/>
+          <a:ext cx="1417320" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA86CAC5-E6B2-22BC-8926-3B11497B1F82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658336E5-BDC9-483C-8EB4-365A7C057551}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6047,8 +7954,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7033260" y="365760"/>
-          <a:ext cx="1196340" cy="175260"/>
+          <a:off x="6050280" y="182880"/>
+          <a:ext cx="1996440" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6069,94 +7976,59 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF8A745-EF00-634B-C53A-FCED9E1D33FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5193BE-A152-EAB7-29B2-2AF9A4C8EFE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7810500" y="182880"/>
-          <a:ext cx="1417320" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{585E1862-DEFC-F0A7-DD5A-517B5761E490}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E059D170-9FF9-7269-FBF9-92C21230C080}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6169,6 +8041,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962CC6CF-2AD2-BCF5-7C94-9A8B989804A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7881FE-2467-1BB7-67B4-0D7348314EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6462,7 +8406,7 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="M1" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -6470,24 +8414,24 @@
     </row>
     <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="16.8" x14ac:dyDescent="0.35">
@@ -6501,31 +8445,31 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="M5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
@@ -8448,7 +10392,7 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1">
         <f>AVERAGE(C6:C45)</f>
@@ -8474,7 +10418,7 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1">
         <f>STDEV(C6:C45)</f>
@@ -8513,1990 +10457,808 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D786FF76-C008-4DA2-A666-A43F81F7EDEA}">
-  <dimension ref="B2:T46"/>
+  <dimension ref="B3:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="1">
+        <f>SUM(G6:G42)</f>
+        <v>3.8985268041341214E+52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
-    <row r="4" spans="2:20" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="43" t="s">
+    <row r="5" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>7420</v>
+      </c>
+      <c r="C6" s="21">
+        <v>4</v>
+      </c>
+      <c r="D6" s="21">
+        <v>13300000</v>
+      </c>
+      <c r="E6" s="21">
+        <v>3.3778451879500329E+25</v>
+      </c>
+      <c r="F6" s="21">
+        <v>-3.3778451879500329E+25</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.1409838113757194E+51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>8960</v>
+      </c>
+      <c r="C7" s="21">
+        <v>4</v>
+      </c>
+      <c r="D7" s="21">
+        <v>12250000</v>
+      </c>
+      <c r="E7" s="21">
+        <v>4.0789072005827423E+25</v>
+      </c>
+      <c r="F7" s="21">
+        <v>-4.0789072005827423E+25</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1.6637483950965743E+51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>9960</v>
+      </c>
+      <c r="C8" s="21">
         <v>3</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
+      <c r="D8" s="21">
+        <v>12250000</v>
+      </c>
+      <c r="E8" s="21">
+        <v>4.5341420530766125E+25</v>
+      </c>
+      <c r="F8" s="21">
+        <v>-4.5341420530766125E+25</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.0558444157477798E+51</v>
+      </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>13300000</v>
-      </c>
-      <c r="D6">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>7500</v>
+      </c>
+      <c r="C9" s="21">
+        <v>4</v>
+      </c>
+      <c r="D9" s="21">
+        <v>12215000</v>
+      </c>
+      <c r="E9" s="21">
+        <v>3.414263993801083E+25</v>
+      </c>
+      <c r="F9" s="21">
+        <v>-3.414263993801083E+25</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1.1657198619366521E+51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
         <v>7420</v>
       </c>
-      <c r="E6" s="6">
+      <c r="C10" s="21">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>13300000</v>
-      </c>
-      <c r="G6" s="5">
-        <f>D6*D6</f>
-        <v>55056400</v>
-      </c>
-      <c r="H6">
-        <f>E6*E6</f>
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <f>D6*E6</f>
-        <v>29680</v>
-      </c>
-      <c r="J6">
-        <f>C6*D6</f>
-        <v>98686000000</v>
-      </c>
-      <c r="K6" s="6">
-        <f>C6*E6</f>
-        <v>53200000</v>
-      </c>
-      <c r="L6" s="5">
-        <f>P$23+P$24*D6+P$25*E6</f>
+      <c r="D10" s="21">
+        <v>11410000</v>
+      </c>
+      <c r="E10" s="21">
         <v>3.3778451879500329E+25</v>
       </c>
-      <c r="M6" s="6">
-        <f>C6-P$23-P$24*D6-P$25*E6</f>
+      <c r="F10" s="21">
         <v>-3.3778451879500329E+25</v>
       </c>
+      <c r="G10" s="6">
+        <v>1.1409838113757194E+51</v>
+      </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>12250000</v>
-      </c>
-      <c r="D7">
-        <v>8960</v>
-      </c>
-      <c r="E7" s="6">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>7500</v>
+      </c>
+      <c r="C11" s="21">
+        <v>3</v>
+      </c>
+      <c r="D11" s="21">
+        <v>10850000</v>
+      </c>
+      <c r="E11" s="21">
+        <v>3.4142637731568293E+25</v>
+      </c>
+      <c r="F11" s="21">
+        <v>-3.4142637731568293E+25</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.1657197112691109E+51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>8580</v>
+      </c>
+      <c r="C12" s="21">
         <v>4</v>
       </c>
-      <c r="F7">
-        <v>12250000</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" ref="G7:G42" si="0">D7*D7</f>
-        <v>80281600</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H42" si="1">E7*E7</f>
-        <v>16</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ref="I7:I42" si="2">D7*E7</f>
-        <v>35840</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ref="J7:J42" si="3">C7*D7</f>
-        <v>109760000000</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" ref="K7:K42" si="4">C7*E7</f>
-        <v>49000000</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" ref="L7:L42" si="5">P$23+P$24*D7+P$25*E7</f>
-        <v>4.0789072005827423E+25</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" ref="M7:M42" si="6">C7-P$23-P$24*D7-P$25*E7</f>
-        <v>-4.0789072005827423E+25</v>
+      <c r="D12" s="21">
+        <v>10150000</v>
+      </c>
+      <c r="E12" s="21">
+        <v>3.9059178727902552E+25</v>
+      </c>
+      <c r="F12" s="21">
+        <v>-3.9059178727902552E+25</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1.5256194428982354E+51</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>8100</v>
+      </c>
+      <c r="C13" s="21">
+        <v>4</v>
+      </c>
+      <c r="D13" s="21">
+        <v>9870000</v>
+      </c>
+      <c r="E13" s="21">
+        <v>3.687405037683957E+25</v>
+      </c>
+      <c r="F13" s="21">
+        <v>-3.687405037683957E+25</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1.3596955911937024E+51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>5750</v>
+      </c>
+      <c r="C14" s="21">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>12250000</v>
-      </c>
-      <c r="D8">
-        <v>9960</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D14" s="21">
+        <v>9800000</v>
+      </c>
+      <c r="E14" s="21">
+        <v>2.6176023951651136E+25</v>
+      </c>
+      <c r="F14" s="21">
+        <v>-2.6176023951651136E+25</v>
+      </c>
+      <c r="G14" s="6">
+        <v>6.85184229917414E+50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>6000</v>
+      </c>
+      <c r="C15" s="21">
+        <v>4</v>
+      </c>
+      <c r="D15" s="21">
+        <v>9681000</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2.731411384093898E+25</v>
+      </c>
+      <c r="F15" s="21">
+        <v>-2.731411384093898E+25</v>
+      </c>
+      <c r="G15" s="6">
+        <v>7.4606081491577442E+50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>6550</v>
+      </c>
+      <c r="C16" s="21">
+        <v>4</v>
+      </c>
+      <c r="D16" s="21">
+        <v>9310000</v>
+      </c>
+      <c r="E16" s="21">
+        <v>2.9817906743198658E+25</v>
+      </c>
+      <c r="F16" s="21">
+        <v>-2.9817906743198658E+25</v>
+      </c>
+      <c r="G16" s="6">
+        <v>8.8910756254609207E+50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>7800</v>
+      </c>
+      <c r="C17" s="21">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>12250000</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="0"/>
-        <v>99201600</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
-        <v>29880</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>122010000000</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="4"/>
-        <v>36750000</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="5"/>
-        <v>4.5341420530766125E+25</v>
-      </c>
-      <c r="M8" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.5341420530766125E+25</v>
+      <c r="D17" s="21">
+        <v>9240000</v>
+      </c>
+      <c r="E17" s="21">
+        <v>3.5508342950982663E+25</v>
+      </c>
+      <c r="F17" s="21">
+        <v>-3.5508342950982663E+25</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1.2608424191246002E+51</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>6000</v>
+      </c>
+      <c r="C18" s="21">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>12215000</v>
-      </c>
-      <c r="D9">
-        <v>7500</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D18" s="21">
+        <v>9100000</v>
+      </c>
+      <c r="E18" s="21">
+        <v>2.731411384093898E+25</v>
+      </c>
+      <c r="F18" s="21">
+        <v>-2.731411384093898E+25</v>
+      </c>
+      <c r="G18" s="6">
+        <v>7.4606081491577442E+50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>6600</v>
+      </c>
+      <c r="C19" s="21">
         <v>4</v>
       </c>
-      <c r="F9">
-        <v>12215000</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="0"/>
-        <v>56250000</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
-        <v>30000</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>91612500000</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="4"/>
-        <v>48860000</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="5"/>
-        <v>3.414263993801083E+25</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.414263993801083E+25</v>
+      <c r="D19" s="21">
+        <v>9100000</v>
+      </c>
+      <c r="E19" s="21">
+        <v>3.004552427976772E+25</v>
+      </c>
+      <c r="F19" s="21">
+        <v>-3.004552427976772E+25</v>
+      </c>
+      <c r="G19" s="6">
+        <v>9.0273352924611165E+50</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>8500</v>
+      </c>
+      <c r="C20" s="21">
+        <v>3</v>
+      </c>
+      <c r="D20" s="21">
+        <v>8960000</v>
+      </c>
+      <c r="E20" s="21">
+        <v>3.8694988462949528E+25</v>
+      </c>
+      <c r="F20" s="21">
+        <v>-3.8694988462949528E+25</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1.497302132147797E+51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>4600</v>
+      </c>
+      <c r="C21" s="21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="21">
+        <v>8890000</v>
+      </c>
+      <c r="E21" s="21">
+        <v>2.0940820610562714E+25</v>
+      </c>
+      <c r="F21" s="21">
+        <v>-2.0940820610562714E+25</v>
+      </c>
+      <c r="G21" s="6">
+        <v>4.385179678437682E+50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>6420</v>
+      </c>
+      <c r="C22" s="21">
+        <v>3</v>
+      </c>
+      <c r="D22" s="21">
+        <v>8855000</v>
+      </c>
+      <c r="E22" s="21">
+        <v>2.9226098941676558E+25</v>
+      </c>
+      <c r="F22" s="21">
+        <v>-2.9226098941676558E+25</v>
+      </c>
+      <c r="G22" s="6">
+        <v>8.541648593486677E+50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>4320</v>
+      </c>
+      <c r="C23" s="21">
+        <v>3</v>
+      </c>
+      <c r="D23" s="21">
+        <v>8750000</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1.9666162405775973E+25</v>
+      </c>
+      <c r="F23" s="21">
+        <v>-1.9666162405775973E+25</v>
+      </c>
+      <c r="G23" s="6">
+        <v>3.8675794377035622E+50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>7155</v>
+      </c>
+      <c r="C24" s="21">
+        <v>3</v>
+      </c>
+      <c r="D24" s="21">
+        <v>8680000</v>
+      </c>
+      <c r="E24" s="21">
+        <v>3.2572076729241766E+25</v>
+      </c>
+      <c r="F24" s="21">
+        <v>-3.2572076729241766E+25</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1.060940182455613E+51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>8050</v>
+      </c>
+      <c r="C25" s="21">
+        <v>3</v>
+      </c>
+      <c r="D25" s="21">
+        <v>8645000</v>
+      </c>
+      <c r="E25" s="21">
+        <v>3.6646430633827971E+25</v>
+      </c>
+      <c r="F25" s="21">
+        <v>-3.6646430633827971E+25</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1.3429608781999651E+51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>4560</v>
+      </c>
+      <c r="C26" s="21">
+        <v>3</v>
+      </c>
+      <c r="D26" s="21">
+        <v>8645000</v>
+      </c>
+      <c r="E26" s="21">
+        <v>2.0758726581307466E+25</v>
+      </c>
+      <c r="F26" s="21">
+        <v>-2.0758726581307466E+25</v>
+      </c>
+      <c r="G26" s="6">
+        <v>4.3092472927748118E+50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>8800</v>
+      </c>
+      <c r="C27" s="21">
+        <v>3</v>
+      </c>
+      <c r="D27" s="21">
+        <v>8575000</v>
+      </c>
+      <c r="E27" s="21">
+        <v>4.0060693682363894E+25</v>
+      </c>
+      <c r="F27" s="21">
+        <v>-4.0060693682363894E+25</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1.6048591783121905E+51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>6540</v>
+      </c>
+      <c r="C28" s="21">
+        <v>4</v>
+      </c>
+      <c r="D28" s="21">
+        <v>8540000</v>
+      </c>
+      <c r="E28" s="21">
+        <v>2.9772383235884844E+25</v>
+      </c>
+      <c r="F28" s="21">
+        <v>-2.9772383235884844E+25</v>
+      </c>
+      <c r="G28" s="6">
+        <v>8.8639480354439692E+50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>6000</v>
+      </c>
+      <c r="C29" s="21">
+        <v>3</v>
+      </c>
+      <c r="D29" s="21">
+        <v>8463000</v>
+      </c>
+      <c r="E29" s="21">
+        <v>2.7314111634496444E+25</v>
+      </c>
+      <c r="F29" s="21">
+        <v>-2.7314111634496444E+25</v>
+      </c>
+      <c r="G29" s="6">
+        <v>7.46060694381734E+50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
+        <v>8875</v>
+      </c>
+      <c r="C30" s="21">
+        <v>3</v>
+      </c>
+      <c r="D30" s="21">
+        <v>8400000</v>
+      </c>
+      <c r="E30" s="21">
+        <v>4.0402119987217485E+25</v>
+      </c>
+      <c r="F30" s="21">
+        <v>-4.0402119987217485E+25</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1.6323312994615186E+51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="5">
+        <v>7950</v>
+      </c>
+      <c r="C31" s="21">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>11410000</v>
-      </c>
-      <c r="D10">
-        <v>7420</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D31" s="21">
+        <v>8400000</v>
+      </c>
+      <c r="E31" s="21">
+        <v>3.6191199973574919E+25</v>
+      </c>
+      <c r="F31" s="21">
+        <v>-3.6191199973574919E+25</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1.3098029555272893E+51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="5">
+        <v>5500</v>
+      </c>
+      <c r="C32" s="21">
         <v>4</v>
       </c>
-      <c r="F10">
-        <v>11410000</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="0"/>
-        <v>55056400</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
-        <v>29680</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>84662200000</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="4"/>
-        <v>45640000</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="5"/>
-        <v>3.3778451879500329E+25</v>
-      </c>
-      <c r="M10" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.3778451879500329E+25</v>
+      <c r="D32" s="21">
+        <v>8400000</v>
+      </c>
+      <c r="E32" s="21">
+        <v>2.5037938475248361E+25</v>
+      </c>
+      <c r="F32" s="21">
+        <v>-2.5037938475248361E+25</v>
+      </c>
+      <c r="G32" s="6">
+        <v>6.2689836309032221E+50</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="5">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>10850000</v>
-      </c>
-      <c r="D11">
-        <v>7500</v>
-      </c>
-      <c r="E11" s="6">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="5">
+        <v>7475</v>
+      </c>
+      <c r="C33" s="21">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>10850000</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="0"/>
-        <v>56250000</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>22500</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>81375000000</v>
-      </c>
-      <c r="K11" s="6">
-        <f t="shared" si="4"/>
-        <v>32550000</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="5"/>
-        <v>3.4142637731568293E+25</v>
-      </c>
-      <c r="M11" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.4142637731568293E+25</v>
-      </c>
-      <c r="O11" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>36</v>
+      <c r="D33" s="21">
+        <v>8400000</v>
+      </c>
+      <c r="E33" s="21">
+        <v>3.402882896328376E+25</v>
+      </c>
+      <c r="F33" s="21">
+        <v>-3.402882896328376E+25</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1.1579612006124197E+51</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B12" s="5">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>10150000</v>
-      </c>
-      <c r="D12">
-        <v>8580</v>
-      </c>
-      <c r="E12" s="6">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="5">
+        <v>7000</v>
+      </c>
+      <c r="C34" s="21">
+        <v>3</v>
+      </c>
+      <c r="D34" s="21">
+        <v>8400000</v>
+      </c>
+      <c r="E34" s="21">
+        <v>3.1866462365877674E+25</v>
+      </c>
+      <c r="F34" s="21">
+        <v>-3.1866462365877674E+25</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1.0154714237158981E+51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>4880</v>
+      </c>
+      <c r="C35" s="21">
         <v>4</v>
       </c>
-      <c r="F12">
-        <v>10150000</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="0"/>
-        <v>73616400</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
-        <v>34320</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>87087000000</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="4"/>
-        <v>40600000</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="5"/>
-        <v>3.9059178727902552E+25</v>
-      </c>
-      <c r="M12" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.9059178727902552E+25</v>
-      </c>
-      <c r="O12" s="20">
-        <f>B42</f>
-        <v>37</v>
-      </c>
-      <c r="P12" s="21">
-        <f>D43</f>
-        <v>259047</v>
-      </c>
-      <c r="Q12" s="22">
-        <f>E43</f>
-        <v>130</v>
-      </c>
-      <c r="R12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" s="29">
-        <f>C43</f>
-        <v>342110440</v>
+      <c r="D35" s="21">
+        <v>8295000</v>
+      </c>
+      <c r="E35" s="21">
+        <v>2.2215481021791997E+25</v>
+      </c>
+      <c r="F35" s="21">
+        <v>-2.2215481021791997E+25</v>
+      </c>
+      <c r="G35" s="6">
+        <v>4.9352759702960042E+50</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B13" s="5">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>9870000</v>
-      </c>
-      <c r="D13">
-        <v>8100</v>
-      </c>
-      <c r="E13" s="6">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
+        <v>5960</v>
+      </c>
+      <c r="C36" s="21">
+        <v>3</v>
+      </c>
+      <c r="D36" s="21">
+        <v>8190000</v>
+      </c>
+      <c r="E36" s="21">
+        <v>2.7132017605241191E+25</v>
+      </c>
+      <c r="F36" s="21">
+        <v>-2.7132017605241191E+25</v>
+      </c>
+      <c r="G36" s="6">
+        <v>7.3614637933111792E+50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="5">
+        <v>6840</v>
+      </c>
+      <c r="C37" s="21">
+        <v>5</v>
+      </c>
+      <c r="D37" s="21">
+        <v>8120000</v>
+      </c>
+      <c r="E37" s="21">
+        <v>3.113809066174175E+25</v>
+      </c>
+      <c r="F37" s="21">
+        <v>-3.113809066174175E+25</v>
+      </c>
+      <c r="G37" s="6">
+        <v>9.6958069005884874E+50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="5">
+        <v>7000</v>
+      </c>
+      <c r="C38" s="21">
+        <v>3</v>
+      </c>
+      <c r="D38" s="21">
+        <v>8080940</v>
+      </c>
+      <c r="E38" s="21">
+        <v>3.1866462365877674E+25</v>
+      </c>
+      <c r="F38" s="21">
+        <v>-3.1866462365877674E+25</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1.0154714237158981E+51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="5">
+        <v>7482</v>
+      </c>
+      <c r="C39" s="21">
+        <v>3</v>
+      </c>
+      <c r="D39" s="21">
+        <v>8043000</v>
+      </c>
+      <c r="E39" s="21">
+        <v>3.406069541840343E+25</v>
+      </c>
+      <c r="F39" s="21">
+        <v>-3.406069541840343E+25</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1.1601309723852484E+51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="5">
+        <v>9000</v>
+      </c>
+      <c r="C40" s="21">
         <v>4</v>
       </c>
-      <c r="F13">
-        <v>9870000</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="0"/>
-        <v>65610000</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>32400</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>79947000000</v>
-      </c>
-      <c r="K13" s="6">
-        <f t="shared" si="4"/>
-        <v>39480000</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="5"/>
-        <v>3.687405037683957E+25</v>
-      </c>
-      <c r="M13" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.687405037683957E+25</v>
-      </c>
-      <c r="O13" s="13">
-        <f>D43</f>
-        <v>259047</v>
-      </c>
-      <c r="P13" s="14">
-        <f>G43</f>
-        <v>1881173599</v>
-      </c>
-      <c r="Q13" s="15">
-        <f>I43</f>
-        <v>911771</v>
-      </c>
-      <c r="R13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" s="37"/>
-      <c r="T13" s="30">
-        <f>J43</f>
-        <v>2419951856000</v>
+      <c r="D40" s="21">
+        <v>7980000</v>
+      </c>
+      <c r="E40" s="21">
+        <v>4.0971166035082671E+25</v>
+      </c>
+      <c r="F40" s="21">
+        <v>-4.0971166035082671E+25</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1.6786364462743118E+51</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="5">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>9800000</v>
-      </c>
-      <c r="D14">
-        <v>5750</v>
-      </c>
-      <c r="E14" s="6">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="5">
+        <v>6000</v>
+      </c>
+      <c r="C41" s="21">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>9800000</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="0"/>
-        <v>33062500</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>17250</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>56350000000</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" si="4"/>
-        <v>29400000</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="5"/>
-        <v>2.6176023951651136E+25</v>
-      </c>
-      <c r="M14" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.6176023951651136E+25</v>
-      </c>
-      <c r="O14" s="23">
-        <f>E43</f>
-        <v>130</v>
-      </c>
-      <c r="P14" s="24">
-        <f>I43</f>
-        <v>911771</v>
-      </c>
-      <c r="Q14" s="25">
-        <f>H43</f>
-        <v>470</v>
-      </c>
-      <c r="R14" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="S14" s="37"/>
-      <c r="T14" s="31">
-        <f>K43</f>
-        <v>1206882320</v>
+      <c r="D41" s="21">
+        <v>7962500</v>
+      </c>
+      <c r="E41" s="21">
+        <v>2.7314111634496444E+25</v>
+      </c>
+      <c r="F41" s="21">
+        <v>-2.7314111634496444E+25</v>
+      </c>
+      <c r="G41" s="6">
+        <v>7.46060694381734E+50</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>9681000</v>
-      </c>
-      <c r="D15">
+    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="11">
         <v>6000</v>
       </c>
-      <c r="E15" s="6">
+      <c r="C42" s="9">
         <v>4</v>
       </c>
-      <c r="F15">
-        <v>9681000</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="0"/>
-        <v>36000000</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
-        <v>24000</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>58086000000</v>
-      </c>
-      <c r="K15" s="6">
-        <f t="shared" si="4"/>
-        <v>38724000</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="5"/>
+      <c r="D42" s="9">
+        <v>7910000</v>
+      </c>
+      <c r="E42" s="9">
         <v>2.731411384093898E+25</v>
       </c>
-      <c r="M15" s="6">
-        <f t="shared" si="6"/>
+      <c r="F42" s="9">
         <v>-2.731411384093898E+25</v>
       </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>9310000</v>
-      </c>
-      <c r="D16">
-        <v>6550</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>9310000</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="0"/>
-        <v>42902500</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
-        <v>26200</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>60980500000</v>
-      </c>
-      <c r="K16" s="6">
-        <f t="shared" si="4"/>
-        <v>37240000</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="5"/>
-        <v>2.9817906743198658E+25</v>
-      </c>
-      <c r="M16" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.9817906743198658E+25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="5">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>9240000</v>
-      </c>
-      <c r="D17">
-        <v>7800</v>
-      </c>
-      <c r="E17" s="6">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>9240000</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="0"/>
-        <v>60840000</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
-        <v>23400</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>72072000000</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="4"/>
-        <v>27720000</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="5"/>
-        <v>3.5508342950982663E+25</v>
-      </c>
-      <c r="M17" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.5508342950982663E+25</v>
-      </c>
-      <c r="O17" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>9100000</v>
-      </c>
-      <c r="D18">
-        <v>6000</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>9100000</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="0"/>
-        <v>36000000</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
-        <v>24000</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
-        <v>54600000000</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" si="4"/>
-        <v>36400000</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="5"/>
-        <v>2.731411384093898E+25</v>
-      </c>
-      <c r="M18" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.731411384093898E+25</v>
-      </c>
-      <c r="O18" s="17">
-        <f t="array" ref="O18:Q20">MINVERSE(O12:Q14)</f>
-        <v>1.6013859120556957</v>
-      </c>
-      <c r="P18" s="18">
-        <v>-9.7670009530921088E-5</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>-0.25346273682387876</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>9100000</v>
-      </c>
-      <c r="D19">
-        <v>6600</v>
-      </c>
-      <c r="E19" s="6">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>9100000</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>43560000</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
-        <v>26400</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="3"/>
-        <v>60060000000</v>
-      </c>
-      <c r="K19" s="6">
-        <f t="shared" si="4"/>
-        <v>36400000</v>
-      </c>
-      <c r="L19" s="5">
-        <f t="shared" si="5"/>
-        <v>3.004552427976772E+25</v>
-      </c>
-      <c r="M19" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.004552427976772E+25</v>
-      </c>
-      <c r="O19" s="5">
-        <v>-9.7670009530920925E-5</v>
-      </c>
-      <c r="P19">
-        <v>1.4854247133690282E-8</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>-1.8012138815153209E-6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="5">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>8960000</v>
-      </c>
-      <c r="D20">
-        <v>8500</v>
-      </c>
-      <c r="E20" s="6">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>8960000</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>72250000</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
-        <v>25500</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="3"/>
-        <v>76160000000</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="4"/>
-        <v>26880000</v>
-      </c>
-      <c r="L20" s="5">
-        <f t="shared" si="5"/>
-        <v>3.8694988462949528E+25</v>
-      </c>
-      <c r="M20" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.8694988462949528E+25</v>
-      </c>
-      <c r="O20" s="11">
-        <v>-0.25346273682387899</v>
-      </c>
-      <c r="P20" s="9">
-        <v>-1.8012138815152805E-6</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>7.5728617806526247E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>8890000</v>
-      </c>
-      <c r="D21">
-        <v>4600</v>
-      </c>
-      <c r="E21" s="6">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>8890000</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>21160000</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="2"/>
-        <v>13800</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="3"/>
-        <v>40894000000</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" si="4"/>
-        <v>26670000</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" si="5"/>
-        <v>2.0940820610562714E+25</v>
-      </c>
-      <c r="M21" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.0940820610562714E+25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="5">
-        <v>17</v>
-      </c>
-      <c r="C22">
-        <v>8855000</v>
-      </c>
-      <c r="D22">
-        <v>6420</v>
-      </c>
-      <c r="E22" s="6">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>8855000</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>41216400</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
-        <v>19260</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="3"/>
-        <v>56849100000</v>
-      </c>
-      <c r="K22" s="6">
-        <f t="shared" si="4"/>
-        <v>26565000</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="5"/>
-        <v>2.9226098941676558E+25</v>
-      </c>
-      <c r="M22" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.9226098941676558E+25</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B23" s="5">
-        <v>18</v>
-      </c>
-      <c r="C23">
-        <v>8750000</v>
-      </c>
-      <c r="D23">
-        <v>4320</v>
-      </c>
-      <c r="E23" s="6">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>8750000</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>18662400</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>12960</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="3"/>
-        <v>37800000000</v>
-      </c>
-      <c r="K23" s="6">
-        <f t="shared" si="4"/>
-        <v>26250000</v>
-      </c>
-      <c r="L23" s="5">
-        <f t="shared" si="5"/>
-        <v>1.9666162405775973E+25</v>
-      </c>
-      <c r="M23" s="6">
-        <f t="shared" si="6"/>
-        <v>-1.9666162405775973E+25</v>
-      </c>
-      <c r="O23" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="19">
-        <f t="array" ref="P23:P25">MMULT(O12:Q14,T12:T14)</f>
-        <v>6.2688143799401984E+17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B24" s="5">
-        <v>19</v>
-      </c>
-      <c r="C24">
-        <v>8680000</v>
-      </c>
-      <c r="D24">
-        <v>7155</v>
-      </c>
-      <c r="E24" s="6">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>8680000</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>51194025</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
-        <v>21465</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
-        <v>62105400000</v>
-      </c>
-      <c r="K24" s="6">
-        <f t="shared" si="4"/>
-        <v>26040000</v>
-      </c>
-      <c r="L24" s="5">
-        <f t="shared" si="5"/>
-        <v>3.2572076729241766E+25</v>
-      </c>
-      <c r="M24" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.2572076729241766E+25</v>
-      </c>
-      <c r="O24" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" s="6">
-        <v>4.5523507313812329E+21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="5">
-        <v>20</v>
-      </c>
-      <c r="C25">
-        <v>8645000</v>
-      </c>
-      <c r="D25">
-        <v>8050</v>
-      </c>
-      <c r="E25" s="6">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>8645000</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>64802500</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>24150</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="3"/>
-        <v>69592250000</v>
-      </c>
-      <c r="K25" s="6">
-        <f t="shared" si="4"/>
-        <v>25935000</v>
-      </c>
-      <c r="L25" s="5">
-        <f t="shared" si="5"/>
-        <v>3.6646430633827971E+25</v>
-      </c>
-      <c r="M25" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.6646430633827971E+25</v>
-      </c>
-      <c r="O25" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25" s="10">
-        <v>2.2064425354060234E+18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="5">
-        <v>21</v>
-      </c>
-      <c r="C26">
-        <v>8645000</v>
-      </c>
-      <c r="D26">
-        <v>4560</v>
-      </c>
-      <c r="E26" s="6">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>8645000</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>20793600</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="2"/>
-        <v>13680</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="3"/>
-        <v>39421200000</v>
-      </c>
-      <c r="K26" s="6">
-        <f t="shared" si="4"/>
-        <v>25935000</v>
-      </c>
-      <c r="L26" s="5">
-        <f t="shared" si="5"/>
-        <v>2.0758726581307466E+25</v>
-      </c>
-      <c r="M26" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.0758726581307466E+25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="5">
-        <v>22</v>
-      </c>
-      <c r="C27">
-        <v>8575000</v>
-      </c>
-      <c r="D27">
-        <v>8800</v>
-      </c>
-      <c r="E27" s="6">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>8575000</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>77440000</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="2"/>
-        <v>26400</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="3"/>
-        <v>75460000000</v>
-      </c>
-      <c r="K27" s="6">
-        <f t="shared" si="4"/>
-        <v>25725000</v>
-      </c>
-      <c r="L27" s="5">
-        <f t="shared" si="5"/>
-        <v>4.0060693682363894E+25</v>
-      </c>
-      <c r="M27" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.0060693682363894E+25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="5">
-        <v>23</v>
-      </c>
-      <c r="C28">
-        <v>8540000</v>
-      </c>
-      <c r="D28">
-        <v>6540</v>
-      </c>
-      <c r="E28" s="6">
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>8540000</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>42771600</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="2"/>
-        <v>26160</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="3"/>
-        <v>55851600000</v>
-      </c>
-      <c r="K28" s="6">
-        <f t="shared" si="4"/>
-        <v>34160000</v>
-      </c>
-      <c r="L28" s="5">
-        <f t="shared" si="5"/>
-        <v>2.9772383235884844E+25</v>
-      </c>
-      <c r="M28" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.9772383235884844E+25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="5">
-        <v>24</v>
-      </c>
-      <c r="C29">
-        <v>8463000</v>
-      </c>
-      <c r="D29">
-        <v>6000</v>
-      </c>
-      <c r="E29" s="6">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>8463000</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>36000000</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="2"/>
-        <v>18000</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="3"/>
-        <v>50778000000</v>
-      </c>
-      <c r="K29" s="6">
-        <f t="shared" si="4"/>
-        <v>25389000</v>
-      </c>
-      <c r="L29" s="5">
-        <f t="shared" si="5"/>
-        <v>2.7314111634496444E+25</v>
-      </c>
-      <c r="M29" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.7314111634496444E+25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="5">
-        <v>25</v>
-      </c>
-      <c r="C30">
-        <v>8400000</v>
-      </c>
-      <c r="D30">
-        <v>8875</v>
-      </c>
-      <c r="E30" s="6">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>8400000</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>78765625</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="2"/>
-        <v>26625</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="3"/>
-        <v>74550000000</v>
-      </c>
-      <c r="K30" s="6">
-        <f t="shared" si="4"/>
-        <v>25200000</v>
-      </c>
-      <c r="L30" s="5">
-        <f t="shared" si="5"/>
-        <v>4.0402119987217485E+25</v>
-      </c>
-      <c r="M30" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.0402119987217485E+25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="5">
-        <v>26</v>
-      </c>
-      <c r="C31">
-        <v>8400000</v>
-      </c>
-      <c r="D31">
-        <v>7950</v>
-      </c>
-      <c r="E31" s="6">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>8400000</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>63202500</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="2"/>
-        <v>39750</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="3"/>
-        <v>66780000000</v>
-      </c>
-      <c r="K31" s="6">
-        <f t="shared" si="4"/>
-        <v>42000000</v>
-      </c>
-      <c r="L31" s="5">
-        <f t="shared" si="5"/>
-        <v>3.6191199973574919E+25</v>
-      </c>
-      <c r="M31" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.6191199973574919E+25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="5">
-        <v>27</v>
-      </c>
-      <c r="C32">
-        <v>8400000</v>
-      </c>
-      <c r="D32">
-        <v>5500</v>
-      </c>
-      <c r="E32" s="6">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <v>8400000</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>30250000</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="2"/>
-        <v>22000</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="3"/>
-        <v>46200000000</v>
-      </c>
-      <c r="K32" s="6">
-        <f t="shared" si="4"/>
-        <v>33600000</v>
-      </c>
-      <c r="L32" s="5">
-        <f t="shared" si="5"/>
-        <v>2.5037938475248361E+25</v>
-      </c>
-      <c r="M32" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.5037938475248361E+25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="5">
-        <v>28</v>
-      </c>
-      <c r="C33">
-        <v>8400000</v>
-      </c>
-      <c r="D33">
-        <v>7475</v>
-      </c>
-      <c r="E33" s="6">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>8400000</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>55875625</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="2"/>
-        <v>22425</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="3"/>
-        <v>62790000000</v>
-      </c>
-      <c r="K33" s="6">
-        <f t="shared" si="4"/>
-        <v>25200000</v>
-      </c>
-      <c r="L33" s="5">
-        <f t="shared" si="5"/>
-        <v>3.402882896328376E+25</v>
-      </c>
-      <c r="M33" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.402882896328376E+25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="5">
-        <v>29</v>
-      </c>
-      <c r="C34">
-        <v>8400000</v>
-      </c>
-      <c r="D34">
-        <v>7000</v>
-      </c>
-      <c r="E34" s="6">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>8400000</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="shared" si="0"/>
-        <v>49000000</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="2"/>
-        <v>21000</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="3"/>
-        <v>58800000000</v>
-      </c>
-      <c r="K34" s="6">
-        <f t="shared" si="4"/>
-        <v>25200000</v>
-      </c>
-      <c r="L34" s="5">
-        <f t="shared" si="5"/>
-        <v>3.1866462365877674E+25</v>
-      </c>
-      <c r="M34" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.1866462365877674E+25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="5">
-        <v>30</v>
-      </c>
-      <c r="C35">
-        <v>8295000</v>
-      </c>
-      <c r="D35">
-        <v>4880</v>
-      </c>
-      <c r="E35" s="6">
-        <v>4</v>
-      </c>
-      <c r="F35">
-        <v>8295000</v>
-      </c>
-      <c r="G35" s="5">
-        <f t="shared" si="0"/>
-        <v>23814400</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="2"/>
-        <v>19520</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="3"/>
-        <v>40479600000</v>
-      </c>
-      <c r="K35" s="6">
-        <f t="shared" si="4"/>
-        <v>33180000</v>
-      </c>
-      <c r="L35" s="5">
-        <f t="shared" si="5"/>
-        <v>2.2215481021791997E+25</v>
-      </c>
-      <c r="M35" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.2215481021791997E+25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="5">
-        <v>31</v>
-      </c>
-      <c r="C36">
-        <v>8190000</v>
-      </c>
-      <c r="D36">
-        <v>5960</v>
-      </c>
-      <c r="E36" s="6">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>8190000</v>
-      </c>
-      <c r="G36" s="5">
-        <f t="shared" si="0"/>
-        <v>35521600</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="2"/>
-        <v>17880</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="3"/>
-        <v>48812400000</v>
-      </c>
-      <c r="K36" s="6">
-        <f t="shared" si="4"/>
-        <v>24570000</v>
-      </c>
-      <c r="L36" s="5">
-        <f t="shared" si="5"/>
-        <v>2.7132017605241191E+25</v>
-      </c>
-      <c r="M36" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.7132017605241191E+25</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="5">
-        <v>32</v>
-      </c>
-      <c r="C37">
-        <v>8120000</v>
-      </c>
-      <c r="D37">
-        <v>6840</v>
-      </c>
-      <c r="E37" s="6">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>8120000</v>
-      </c>
-      <c r="G37" s="5">
-        <f t="shared" si="0"/>
-        <v>46785600</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="2"/>
-        <v>34200</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="3"/>
-        <v>55540800000</v>
-      </c>
-      <c r="K37" s="6">
-        <f t="shared" si="4"/>
-        <v>40600000</v>
-      </c>
-      <c r="L37" s="5">
-        <f t="shared" si="5"/>
-        <v>3.113809066174175E+25</v>
-      </c>
-      <c r="M37" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.113809066174175E+25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="5">
-        <v>33</v>
-      </c>
-      <c r="C38">
-        <v>8080940</v>
-      </c>
-      <c r="D38">
-        <v>7000</v>
-      </c>
-      <c r="E38" s="6">
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <v>8080940</v>
-      </c>
-      <c r="G38" s="5">
-        <f t="shared" si="0"/>
-        <v>49000000</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="2"/>
-        <v>21000</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="3"/>
-        <v>56566580000</v>
-      </c>
-      <c r="K38" s="6">
-        <f t="shared" si="4"/>
-        <v>24242820</v>
-      </c>
-      <c r="L38" s="5">
-        <f t="shared" si="5"/>
-        <v>3.1866462365877674E+25</v>
-      </c>
-      <c r="M38" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.1866462365877674E+25</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="5">
-        <v>34</v>
-      </c>
-      <c r="C39">
-        <v>8043000</v>
-      </c>
-      <c r="D39">
-        <v>7482</v>
-      </c>
-      <c r="E39" s="6">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>8043000</v>
-      </c>
-      <c r="G39" s="5">
-        <f t="shared" si="0"/>
-        <v>55980324</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="2"/>
-        <v>22446</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="3"/>
-        <v>60177726000</v>
-      </c>
-      <c r="K39" s="6">
-        <f t="shared" si="4"/>
-        <v>24129000</v>
-      </c>
-      <c r="L39" s="5">
-        <f t="shared" si="5"/>
-        <v>3.406069541840343E+25</v>
-      </c>
-      <c r="M39" s="6">
-        <f t="shared" si="6"/>
-        <v>-3.406069541840343E+25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="5">
-        <v>35</v>
-      </c>
-      <c r="C40">
-        <v>7980000</v>
-      </c>
-      <c r="D40">
-        <v>9000</v>
-      </c>
-      <c r="E40" s="6">
-        <v>4</v>
-      </c>
-      <c r="F40">
-        <v>7980000</v>
-      </c>
-      <c r="G40" s="5">
-        <f t="shared" si="0"/>
-        <v>81000000</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="2"/>
-        <v>36000</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="3"/>
-        <v>71820000000</v>
-      </c>
-      <c r="K40" s="6">
-        <f t="shared" si="4"/>
-        <v>31920000</v>
-      </c>
-      <c r="L40" s="5">
-        <f t="shared" si="5"/>
-        <v>4.0971166035082671E+25</v>
-      </c>
-      <c r="M40" s="6">
-        <f t="shared" si="6"/>
-        <v>-4.0971166035082671E+25</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="5">
-        <v>36</v>
-      </c>
-      <c r="C41">
-        <v>7962500</v>
-      </c>
-      <c r="D41">
-        <v>6000</v>
-      </c>
-      <c r="E41" s="6">
-        <v>3</v>
-      </c>
-      <c r="F41">
-        <v>7962500</v>
-      </c>
-      <c r="G41" s="5">
-        <f t="shared" si="0"/>
-        <v>36000000</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="2"/>
-        <v>18000</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="3"/>
-        <v>47775000000</v>
-      </c>
-      <c r="K41" s="6">
-        <f t="shared" si="4"/>
-        <v>23887500</v>
-      </c>
-      <c r="L41" s="5">
-        <f t="shared" si="5"/>
-        <v>2.7314111634496444E+25</v>
-      </c>
-      <c r="M41" s="6">
-        <f t="shared" si="6"/>
-        <v>-2.7314111634496444E+25</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="11">
-        <v>37</v>
-      </c>
-      <c r="C42" s="9">
-        <v>7910000</v>
-      </c>
-      <c r="D42" s="9">
-        <v>6000</v>
-      </c>
-      <c r="E42" s="10">
-        <v>4</v>
-      </c>
-      <c r="F42" s="9">
-        <v>7910000</v>
-      </c>
-      <c r="G42" s="11">
-        <f t="shared" si="0"/>
-        <v>36000000</v>
-      </c>
-      <c r="H42" s="9">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I42" s="9">
-        <f t="shared" si="2"/>
-        <v>24000</v>
-      </c>
-      <c r="J42" s="9">
-        <f t="shared" si="3"/>
-        <v>47460000000</v>
-      </c>
-      <c r="K42" s="10">
-        <f t="shared" si="4"/>
-        <v>31640000</v>
-      </c>
-      <c r="L42" s="11">
-        <f t="shared" si="5"/>
-        <v>2.731411384093898E+25</v>
-      </c>
-      <c r="M42" s="10">
-        <f t="shared" si="6"/>
-        <v>-2.731411384093898E+25</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="1">
-        <f>SUM(C6:C42)</f>
-        <v>342110440</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" ref="D43:K43" si="7">SUM(D6:D42)</f>
-        <v>259047</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="7"/>
-        <v>130</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1">
-        <f t="shared" si="7"/>
-        <v>1881173599</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" si="7"/>
-        <v>470</v>
-      </c>
-      <c r="I43" s="1">
-        <f t="shared" si="7"/>
-        <v>911771</v>
-      </c>
-      <c r="J43" s="1">
-        <f t="shared" si="7"/>
-        <v>2419951856000</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="7"/>
-        <v>1206882320</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="1">
-        <f>MIN(C6:C42)</f>
-        <v>7910000</v>
-      </c>
-      <c r="D44" s="1">
-        <f>MIN(D6:D42)</f>
-        <v>4320</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" ref="E44" si="8">MIN(E6:E42)</f>
-        <v>3</v>
-      </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="1">
-        <f>MAX(C6:C42)</f>
-        <v>13300000</v>
-      </c>
-      <c r="D45" s="1">
-        <f>MAX(D6:D42)</f>
-        <v>9960</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" ref="E45" si="9">MAX(E6:E42)</f>
-        <v>5</v>
-      </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="1">
-        <f>AVERAGE(C6:C42)</f>
-        <v>9246228.1081081089</v>
-      </c>
-      <c r="D46" s="1">
-        <f>AVERAGE(D6:D42)</f>
-        <v>7001.27027027027</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" ref="E46" si="10">AVERAGE(E6:E42)</f>
-        <v>3.5135135135135136</v>
-      </c>
-      <c r="F46" s="1"/>
+      <c r="G42" s="10">
+        <v>7.4606081491577442E+50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="O17:Q17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/models_in_excel/Linear_Regression_2_Variables.xlsx
+++ b/models_in_excel/Linear_Regression_2_Variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Books\AI\Practice\PDF\Karim\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4098379F-A7DD-46C6-B72E-D315946212F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903B969E-E58A-4DF4-AF29-4472122ECEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>price</t>
   </si>
@@ -354,6 +354,51 @@
       <t>2</t>
     </r>
   </si>
+  <si>
+    <t>(Area- mean(Area))^2</t>
+  </si>
+  <si>
+    <t>(bedrooms - mean(bedrooms))^2</t>
+  </si>
+  <si>
+    <t>(y-Mean(Y))2</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Error Price = </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>t =</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>VIF=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Error BedRooms = </t>
+  </si>
+  <si>
+    <t>t=</t>
+  </si>
+  <si>
+    <t>Adjusted R2</t>
+  </si>
 </sst>
 </file>
 
@@ -530,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -550,9 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7544,148 +7587,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B92F3C-66BB-4869-BBFA-EADB7E95E8EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8717280" y="266700"/>
-          <a:ext cx="1143000" cy="472440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1280160</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502707A7-A9E1-4F4B-A2EE-E0D7114D1F9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10949940" y="190500"/>
-          <a:ext cx="2316480" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>50</xdr:row>
@@ -7714,7 +7615,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7750,7 +7651,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7905,13 +7806,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
@@ -7976,13 +7877,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -8012,16 +7913,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8048,13 +7949,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -8084,16 +7985,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8386,7 +8287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C38" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -10457,788 +10358,1124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D786FF76-C008-4DA2-A666-A43F81F7EDEA}">
-  <dimension ref="B3:M42"/>
+  <dimension ref="A3:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="12" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M3" s="1">
+    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q3" s="1">
         <f>SUM(G6:G42)</f>
         <v>3.8985268041341214E+52</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="2:17" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="2:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>26</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>7420</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6">
         <v>13300000</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6">
         <v>3.3778451879500329E+25</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6">
         <v>-3.3778451879500329E+25</v>
       </c>
       <c r="G6" s="6">
         <v>1.1409838113757194E+51</v>
       </c>
+      <c r="H6">
+        <v>175334.58655953276</v>
+      </c>
+      <c r="I6">
+        <v>0.23666910153396631</v>
+      </c>
+      <c r="J6">
+        <v>16433066551492.762</v>
+      </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>8960</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7">
         <v>12250000</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7">
         <v>4.0789072005827423E+25</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7">
         <v>-4.0789072005827423E+25</v>
       </c>
       <c r="G7" s="6">
         <v>1.6637483950965743E+51</v>
       </c>
+      <c r="H7">
+        <v>3836622.1541271014</v>
+      </c>
+      <c r="I7">
+        <v>0.23666910153396631</v>
+      </c>
+      <c r="J7">
+        <v>9022645578519.791</v>
+      </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>9960</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8">
         <v>12250000</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8">
         <v>4.5341420530766125E+25</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8">
         <v>-4.5341420530766125E+25</v>
       </c>
       <c r="G8" s="6">
         <v>2.0558444157477798E+51</v>
       </c>
+      <c r="H8">
+        <v>8754081.6135865618</v>
+      </c>
+      <c r="I8">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J8">
+        <v>9022645578519.791</v>
+      </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>7500</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9">
         <v>12215000</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9">
         <v>3.414263993801083E+25</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9">
         <v>-3.414263993801083E+25</v>
       </c>
       <c r="G9" s="6">
         <v>1.1657198619366521E+51</v>
       </c>
+      <c r="H9">
+        <v>248731.34331628957</v>
+      </c>
+      <c r="I9">
+        <v>0.23666910153396631</v>
+      </c>
+      <c r="J9">
+        <v>8813606546087.3594</v>
+      </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>7420</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10">
         <v>11410000</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10">
         <v>3.3778451879500329E+25</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10">
         <v>-3.3778451879500329E+25</v>
       </c>
       <c r="G10" s="6">
         <v>1.1409838113757194E+51</v>
       </c>
+      <c r="H10">
+        <v>175334.58655953276</v>
+      </c>
+      <c r="I10">
+        <v>0.23666910153396631</v>
+      </c>
+      <c r="J10">
+        <v>4681908800141.4141</v>
+      </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>7500</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11">
         <v>10850000</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11">
         <v>3.4142637731568293E+25</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11">
         <v>-3.4142637731568293E+25</v>
       </c>
       <c r="G11" s="6">
         <v>1.1657197112691109E+51</v>
       </c>
+      <c r="H11">
+        <v>248731.34331628957</v>
+      </c>
+      <c r="I11">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J11">
+        <v>2572084281222.4956</v>
+      </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>8580</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12">
         <v>10150000</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12">
         <v>3.9059178727902552E+25</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12">
         <v>-3.9059178727902552E+25</v>
       </c>
       <c r="G12" s="6">
         <v>1.5256194428982354E+51</v>
       </c>
+      <c r="H12">
+        <v>2492387.5595325064</v>
+      </c>
+      <c r="I12">
+        <v>0.23666910153396631</v>
+      </c>
+      <c r="J12">
+        <v>816803632573.84814</v>
+      </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>8100</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13">
         <v>9870000</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13">
         <v>3.687405037683957E+25</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13">
         <v>-3.687405037683957E+25</v>
       </c>
       <c r="G13" s="6">
         <v>1.3596955911937024E+51</v>
       </c>
+      <c r="H13">
+        <v>1207207.0189919656</v>
+      </c>
+      <c r="I13">
+        <v>0.23666910153396631</v>
+      </c>
+      <c r="J13">
+        <v>389091373114.3891</v>
+      </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>5750</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14">
         <v>9800000</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14">
         <v>2.6176023951651136E+25</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14">
         <v>-2.6176023951651136E+25</v>
       </c>
       <c r="G14" s="6">
         <v>6.85184229917414E+50</v>
       </c>
+      <c r="H14">
+        <v>1565677.2892622345</v>
+      </c>
+      <c r="I14">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J14">
+        <v>306663308249.52435</v>
+      </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>6000</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15">
         <v>9681000</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15">
         <v>2.731411384093898E+25</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15">
         <v>-2.731411384093898E+25</v>
       </c>
       <c r="G15" s="6">
         <v>7.4606081491577442E+50</v>
       </c>
+      <c r="H15">
+        <v>1002542.1541270994</v>
+      </c>
+      <c r="I15">
+        <v>0.23666910153396631</v>
+      </c>
+      <c r="J15">
+        <v>189026597979.25427</v>
+      </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>6550</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16">
         <v>9310000</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16">
         <v>2.9817906743198658E+25</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16">
         <v>-2.9817906743198658E+25</v>
       </c>
       <c r="G16" s="6">
         <v>8.8910756254609207E+50</v>
       </c>
+      <c r="H16">
+        <v>203644.85682980251</v>
+      </c>
+      <c r="I16">
+        <v>0.23666910153396631</v>
+      </c>
+      <c r="J16">
+        <v>4066854195.4710507</v>
+      </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>7800</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17">
         <v>9240000</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17">
         <v>3.5508342950982663E+25</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17">
         <v>-3.5508342950982663E+25</v>
       </c>
       <c r="G17" s="6">
         <v>1.2608424191246002E+51</v>
       </c>
+      <c r="H17">
+        <v>637969.18115412758</v>
+      </c>
+      <c r="I17">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J17">
+        <v>38789330.606291361</v>
+      </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>6000</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18">
         <v>9100000</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18">
         <v>2.731411384093898E+25</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18">
         <v>-2.731411384093898E+25</v>
       </c>
       <c r="G18" s="6">
         <v>7.4606081491577442E+50</v>
       </c>
+      <c r="H18">
+        <v>1002542.1541270994</v>
+      </c>
+      <c r="I18">
+        <v>0.23666910153396631</v>
+      </c>
+      <c r="J18">
+        <v>21382659600.876774</v>
+      </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>6600</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19">
         <v>9100000</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19">
         <v>3.004552427976772E+25</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19">
         <v>-3.004552427976772E+25</v>
       </c>
       <c r="G19" s="6">
         <v>9.0273352924611165E+50</v>
       </c>
+      <c r="H19">
+        <v>161017.82980277552</v>
+      </c>
+      <c r="I19">
+        <v>0.23666910153396631</v>
+      </c>
+      <c r="J19">
+        <v>21382659600.876774</v>
+      </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>8500</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20">
         <v>8960000</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20">
         <v>3.8694988462949528E+25</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20">
         <v>-3.8694988462949528E+25</v>
       </c>
       <c r="G20" s="6">
         <v>1.497302132147797E+51</v>
       </c>
+      <c r="H20">
+        <v>2246190.8027757495</v>
+      </c>
+      <c r="I20">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J20">
+        <v>81926529871.147247</v>
+      </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>4600</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21">
         <v>8890000</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21">
         <v>2.0940820610562714E+25</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21">
         <v>-2.0940820610562714E+25</v>
       </c>
       <c r="G21" s="6">
         <v>4.385179678437682E+50</v>
       </c>
+      <c r="H21">
+        <v>5766098.9108838551</v>
+      </c>
+      <c r="I21">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J21">
+        <v>126898465006.2825</v>
+      </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>6420</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22">
         <v>8855000</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22">
         <v>2.9226098941676558E+25</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22">
         <v>-2.9226098941676558E+25</v>
       </c>
       <c r="G22" s="6">
         <v>8.541648593486677E+50</v>
       </c>
+      <c r="H22">
+        <v>337875.12710007268</v>
+      </c>
+      <c r="I22">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J22">
+        <v>153059432573.85013</v>
+      </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>4320</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23">
         <v>8750000</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23">
         <v>1.9666162405775973E+25</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23">
         <v>-1.9666162405775973E+25</v>
       </c>
       <c r="G23" s="6">
         <v>3.8675794377035622E+50</v>
       </c>
+      <c r="H23">
+        <v>7189210.2622352066</v>
+      </c>
+      <c r="I23">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J23">
+        <v>246242335276.55298</v>
+      </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>7155</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24">
         <v>8680000</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24">
         <v>3.2572076729241766E+25</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24">
         <v>-3.2572076729241766E+25</v>
       </c>
       <c r="G24" s="6">
         <v>1.060940182455613E+51</v>
       </c>
+      <c r="H24">
+        <v>23632.829802775839</v>
+      </c>
+      <c r="I24">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J24">
+        <v>320614270411.68823</v>
+      </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>8050</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25">
         <v>3</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25">
         <v>8645000</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25">
         <v>3.6646430633827971E+25</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25">
         <v>-3.6646430633827971E+25</v>
       </c>
       <c r="G25" s="6">
         <v>1.3429608781999651E+51</v>
       </c>
+      <c r="H25">
+        <v>1099834.0460189926</v>
+      </c>
+      <c r="I25">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J25">
+        <v>361475237979.25586</v>
+      </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>4560</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26">
         <v>8645000</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26">
         <v>2.0758726581307466E+25</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26">
         <v>-2.0758726581307466E+25</v>
       </c>
       <c r="G26" s="6">
         <v>4.3092472927748118E+50</v>
       </c>
+      <c r="H26">
+        <v>5959800.5325054768</v>
+      </c>
+      <c r="I26">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J26">
+        <v>361475237979.25586</v>
+      </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>8800</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27">
         <v>8575000</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27">
         <v>4.0060693682363894E+25</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27">
         <v>-4.0060693682363894E+25</v>
       </c>
       <c r="G27" s="6">
         <v>1.6048591783121905E+51</v>
       </c>
+      <c r="H27">
+        <v>3235428.6406135876</v>
+      </c>
+      <c r="I27">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J27">
+        <v>450547173114.39105</v>
+      </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>6540</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28">
         <v>8540000</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28">
         <v>2.9772383235884844E+25</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28">
         <v>-2.9772383235884844E+25</v>
       </c>
       <c r="G28" s="6">
         <v>8.8639480354439692E+50</v>
       </c>
+      <c r="H28">
+        <v>212770.26223520792</v>
+      </c>
+      <c r="I28">
+        <v>0.23666910153396631</v>
+      </c>
+      <c r="J28">
+        <v>498758140681.95868</v>
+      </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>6000</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29">
         <v>8463000</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29">
         <v>2.7314111634496444E+25</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29">
         <v>-2.7314111634496444E+25</v>
       </c>
       <c r="G29" s="6">
         <v>7.46060694381734E+50</v>
       </c>
+      <c r="H29">
+        <v>1002542.1541270994</v>
+      </c>
+      <c r="I29">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J29">
+        <v>613446269330.60742</v>
+      </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>8875</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30">
         <v>8400000</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30">
         <v>4.0402119987217485E+25</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30">
         <v>-4.0402119987217485E+25</v>
       </c>
       <c r="G30" s="6">
         <v>1.6323312994615186E+51</v>
       </c>
+      <c r="H30">
+        <v>3510863.100073047</v>
+      </c>
+      <c r="I30">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J30">
+        <v>716102010952.22913</v>
+      </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>7950</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31">
         <v>5</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31">
         <v>8400000</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31">
         <v>3.6191199973574919E+25</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31">
         <v>-3.6191199973574919E+25</v>
       </c>
       <c r="G31" s="6">
         <v>1.3098029555272893E+51</v>
       </c>
+      <c r="H31">
+        <v>900088.10007304663</v>
+      </c>
+      <c r="I31">
+        <v>2.2096420745069389</v>
+      </c>
+      <c r="J31">
+        <v>716102010952.22913</v>
+      </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>5500</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32">
         <v>4</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32">
         <v>8400000</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32">
         <v>2.5037938475248361E+25</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32">
         <v>-2.5037938475248361E+25</v>
       </c>
       <c r="G32" s="6">
         <v>6.2689836309032221E+50</v>
       </c>
+      <c r="H32">
+        <v>2253812.4243973694</v>
+      </c>
+      <c r="I32">
+        <v>0.23666910153396631</v>
+      </c>
+      <c r="J32">
+        <v>716102010952.22913</v>
+      </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>7475</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33">
         <v>8400000</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33">
         <v>3.402882896328376E+25</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33">
         <v>-3.402882896328376E+25</v>
       </c>
       <c r="G33" s="6">
         <v>1.1579612006124197E+51</v>
       </c>
+      <c r="H33">
+        <v>224419.85682980306</v>
+      </c>
+      <c r="I33">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J33">
+        <v>716102010952.22913</v>
+      </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>7000</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34">
         <v>8400000</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34">
         <v>3.1866462365877674E+25</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34">
         <v>-3.1866462365877674E+25</v>
       </c>
       <c r="G34" s="6">
         <v>1.0154714237158981E+51</v>
       </c>
+      <c r="H34">
+        <v>1.613586559531756</v>
+      </c>
+      <c r="I34">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J34">
+        <v>716102010952.22913</v>
+      </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>4880</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35">
         <v>8295000</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35">
         <v>2.2215481021791997E+25</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35">
         <v>-2.2215481021791997E+25</v>
       </c>
       <c r="G35" s="6">
         <v>4.9352759702960042E+50</v>
       </c>
+      <c r="H35">
+        <v>4499787.5595325045</v>
+      </c>
+      <c r="I35">
+        <v>0.23666910153396631</v>
+      </c>
+      <c r="J35">
+        <v>904834913654.93201</v>
+      </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>5960</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36">
         <v>3</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36">
         <v>8190000</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36">
         <v>2.7132017605241191E+25</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36">
         <v>-2.7132017605241191E+25</v>
       </c>
       <c r="G36" s="6">
         <v>7.3614637933111792E+50</v>
       </c>
+      <c r="H36">
+        <v>1084243.7757487211</v>
+      </c>
+      <c r="I36">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J36">
+        <v>1115617816357.635</v>
+      </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>6840</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37">
         <v>5</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37">
         <v>8120000</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37">
         <v>3.113809066174175E+25</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37">
         <v>-3.113809066174175E+25</v>
       </c>
       <c r="G37" s="6">
         <v>9.6958069005884874E+50</v>
       </c>
+      <c r="H37">
+        <v>26008.100073045924</v>
+      </c>
+      <c r="I37">
+        <v>2.2096420745069389</v>
+      </c>
+      <c r="J37">
+        <v>1268389751492.7703</v>
+      </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>7000</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38">
         <v>8080940</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38">
         <v>3.1866462365877674E+25</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38">
         <v>-3.1866462365877674E+25</v>
       </c>
       <c r="G38" s="6">
         <v>1.0154714237158981E+51</v>
       </c>
+      <c r="H38">
+        <v>1.613586559531756</v>
+      </c>
+      <c r="I38">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J38">
+        <v>1357896374898.1755</v>
+      </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>7482</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39">
         <v>8043000</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39">
         <v>3.406069541840343E+25</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39">
         <v>-3.406069541840343E+25</v>
       </c>
       <c r="G39" s="6">
         <v>1.1601309723852484E+51</v>
       </c>
+      <c r="H39">
+        <v>231101.07304601927</v>
+      </c>
+      <c r="I39">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J39">
+        <v>1447757880141.4189</v>
+      </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>9000</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40">
         <v>4</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40">
         <v>7980000</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40">
         <v>4.0971166035082671E+25</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40">
         <v>-4.0971166035082671E+25</v>
       </c>
       <c r="G40" s="6">
         <v>1.6786364462743118E+51</v>
       </c>
+      <c r="H40">
+        <v>3994920.5325054796</v>
+      </c>
+      <c r="I40">
+        <v>0.23666910153396631</v>
+      </c>
+      <c r="J40">
+        <v>1603333621763.0405</v>
+      </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>6000</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41">
         <v>3</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41">
         <v>7962500</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41">
         <v>2.7314111634496444E+25</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41">
         <v>-2.7314111634496444E+25</v>
       </c>
       <c r="G41" s="6">
         <v>7.46060694381734E+50</v>
       </c>
+      <c r="H41">
+        <v>1002542.1541270994</v>
+      </c>
+      <c r="I41">
+        <v>0.2636961285609935</v>
+      </c>
+      <c r="J41">
+        <v>1647957855546.8245</v>
+      </c>
     </row>
-    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="11">
         <v>6000</v>
       </c>
@@ -11257,6 +11494,156 @@
       <c r="G42" s="10">
         <v>7.4606081491577442E+50</v>
       </c>
+      <c r="H42">
+        <v>1002542.1541270994</v>
+      </c>
+      <c r="I42">
+        <v>0.23666910153396631</v>
+      </c>
+      <c r="J42">
+        <v>1785505556898.1758</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>259047</v>
+      </c>
+      <c r="C43">
+        <v>259047</v>
+      </c>
+      <c r="D43">
+        <v>342110440</v>
+      </c>
+      <c r="H43" s="1">
+        <v>67515539.297297299</v>
+      </c>
+      <c r="I43" s="1">
+        <v>13.243243243243242</v>
+      </c>
+      <c r="J43" s="1">
+        <v>70220660128367.563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>4320</v>
+      </c>
+      <c r="C44">
+        <v>4320</v>
+      </c>
+      <c r="D44">
+        <v>7910000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45">
+        <v>9960</v>
+      </c>
+      <c r="C45">
+        <v>9960</v>
+      </c>
+      <c r="D45">
+        <v>13300000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>7001.27027027027</v>
+      </c>
+      <c r="C46">
+        <v>7001.27027027027</v>
+      </c>
+      <c r="D46">
+        <v>9246228.1081081089</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47">
+        <v>1369.4639999456524</v>
+      </c>
+      <c r="C47">
+        <v>1369.4639999456524</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="1">
+        <v>225.13849474220913</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2.0220223718710661E+19</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="1">
+        <v>-5.5518230631944805E+38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="1">
+        <v>9.9711457753056953E-2</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2.2128274775306637E+19</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" s="1">
+        <v>-5.8784008904412142E+38</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.8012101405562572E-39</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
